--- a/AAII.xlsx
+++ b/AAII.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ace.bai\Documents\Position book indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01AB0335-9FC7-45EF-A05F-FA72E002C948}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{120DB4E6-E087-4707-A2AF-9CDEB4DE151B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Bullish</t>
+  </si>
   <si>
     <t>Neutral</t>
   </si>
@@ -33,16 +34,10 @@
     <t>Bull-Bear Spread</t>
   </si>
   <si>
-    <t>S&amp;P 500 Weekly Close</t>
-  </si>
-  <si>
     <t>VIX</t>
   </si>
   <si>
     <t>TNX</t>
-  </si>
-  <si>
-    <t>Trend</t>
   </si>
   <si>
     <t>Bullish_sm5</t>
@@ -63,90 +58,16 @@
     <t>TNX_sm5</t>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Trend</t>
   </si>
   <si>
-    <t>Accuracy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Training Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test set 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test set 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test set 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test set 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1 Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ridge Classifier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R Squared</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lasso</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ridge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coefficient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array([[ 1.17387091e+00, -1.28896617e+00,  1.13146579e-01,
-         1.06072433e+00, -1.95666063e-05,  7.47401113e-01,
-        -9.32243309e-02, -1.01756564e+00,  1.10965424e+00,
-        -1.20287857e+00,  2.32989827e-02, -8.43499847e-01]])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intercept</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array([0.16662908])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>S&amp;P 500 Weekly Close</t>
   </si>
   <si>
     <t>Predicted Trend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bullish</t>
+    <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,22 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -587,26 +498,26 @@
     <col min="11" max="11" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -615,31 +526,31 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -647,7 +558,7 @@
         <v>41508</v>
       </c>
       <c r="B2">
-        <v>0.28957500000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C2">
         <v>0.28185300000000002</v>
@@ -665,7 +576,7 @@
         <v>2.9009999999999998</v>
       </c>
       <c r="H2">
-        <v>0.3673942</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I2">
         <v>0.34214359999999999</v>
@@ -683,14 +594,14 @@
         <v>2.7145999999999999</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>1642.8</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
-        <f>IF(1.17387091 * B2 + -1.28896617 * C2 + 0.113146579 * D2 + 1.06072433 * E2 + -0.0000195666063 * F2 + 0.747401113 * G2 + -0.0932243309 * H2 + -1.01756564 * I2 + 1.10965424 * J2 + -1.20287857 * K2 + 0.0232989827 * L2 + -0.843499847 * M2 + 0.16662908 &gt; 0, 1, 0)</f>
-        <v>1</v>
+        <f>IF(-2.46914834676694 * B2+-1.8682208654342 * C2+0.186391377028163 * D2+1.49437631083417 * E2+-0.0363931120658708 * F2+0.217829273707781 * G2+-0.708794130176448 * H2+-0.666237113966236 * I2+1.19636185029295 * J2+-1.72750210891747 * K2+0.0550959718293999 * L2+-0.278500795201216 * M2+1.78551882735402 &gt; 0, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -698,7 +609,7 @@
         <v>41515</v>
       </c>
       <c r="B3">
-        <v>0.33540399999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C3">
         <v>0.35714299999999999</v>
@@ -716,7 +627,7 @@
         <v>2.7509999999999999</v>
       </c>
       <c r="H3">
-        <v>0.34423939999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I3">
         <v>0.34892580000000001</v>
@@ -734,13 +645,13 @@
         <v>2.7433999999999998</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>1634.96</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">IF(1.17387091 * B3 + -1.28896617 * C3 + 0.113146579 * D3 + 1.06072433 * E3 + -0.0000195666063 * F3 + 0.747401113 * G3 + -0.0932243309 * H3 + -1.01756564 * I3 + 1.10965424 * J3 + -1.20287857 * K3 + 0.0232989827 * L3 + -0.843499847 * M3 + 0.16662908 &gt; 0, 1, 0)</f>
+        <f t="shared" ref="P3:P66" si="0">IF(-2.46914834676694 * B3+-1.8682208654342 * C3+0.186391377028163 * D3+1.49437631083417 * E3+-0.0363931120658708 * F3+0.217829273707781 * G3+-0.708794130176448 * H3+-0.666237113966236 * I3+1.19636185029295 * J3+-1.72750210891747 * K3+0.0550959718293999 * L3+-0.278500795201216 * M3+1.78551882735402 &gt; 0, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -749,7 +660,7 @@
         <v>41522</v>
       </c>
       <c r="B4">
-        <v>0.3553</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C4">
         <v>0.3322</v>
@@ -767,7 +678,7 @@
         <v>2.9790000000000001</v>
       </c>
       <c r="H4">
-        <v>0.34406660000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I4">
         <v>0.33659859999999991</v>
@@ -785,10 +696,10 @@
         <v>2.7946</v>
       </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>1653.08</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -800,7 +711,7 @@
         <v>41529</v>
       </c>
       <c r="B5">
-        <v>0.45515</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C5">
         <v>0.29900300000000002</v>
@@ -818,7 +729,7 @@
         <v>2.907</v>
       </c>
       <c r="H5">
-        <v>0.35609980000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I5">
         <v>0.32868760000000002</v>
@@ -836,10 +747,10 @@
         <v>2.8586</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>1689.13</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -851,7 +762,7 @@
         <v>41536</v>
       </c>
       <c r="B6">
-        <v>0.45112799999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C6">
         <v>0.25187999999999999</v>
@@ -869,7 +780,7 @@
         <v>2.7480000000000002</v>
       </c>
       <c r="H6">
-        <v>0.37731140000000007</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I6">
         <v>0.30441580000000001</v>
@@ -887,10 +798,10 @@
         <v>2.8572000000000011</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>1725.52</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -902,7 +813,7 @@
         <v>41543</v>
       </c>
       <c r="B7">
-        <v>0.36054399999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C7">
         <v>0.33333299999999999</v>
@@ -920,7 +831,7 @@
         <v>2.6429999999999998</v>
       </c>
       <c r="H7">
-        <v>0.39150520000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I7">
         <v>0.31471179999999999</v>
@@ -938,10 +849,10 @@
         <v>2.805600000000001</v>
       </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>1692.77</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -953,7 +864,7 @@
         <v>41550</v>
       </c>
       <c r="B8">
-        <v>0.37837799999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C8">
         <v>0.32094600000000001</v>
@@ -971,7 +882,7 @@
         <v>2.6059999999999999</v>
       </c>
       <c r="H8">
-        <v>0.40010000000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I8">
         <v>0.30747239999999998</v>
@@ -989,10 +900,10 @@
         <v>2.7766000000000011</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>1693.87</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -1004,7 +915,7 @@
         <v>41557</v>
       </c>
       <c r="B9">
-        <v>0.41328399999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C9">
         <v>0.25092300000000001</v>
@@ -1022,7 +933,7 @@
         <v>2.6850000000000001</v>
       </c>
       <c r="H9">
-        <v>0.41169680000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I9">
         <v>0.29121699999999989</v>
@@ -1040,10 +951,10 @@
         <v>2.7178000000000009</v>
       </c>
       <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>1656.4</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -1055,7 +966,7 @@
         <v>41564</v>
       </c>
       <c r="B10">
-        <v>0.462783</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C10">
         <v>0.288026</v>
@@ -1073,7 +984,7 @@
         <v>2.5870000000000002</v>
       </c>
       <c r="H10">
-        <v>0.41322340000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I10">
         <v>0.28902159999999999</v>
@@ -1091,10 +1002,10 @@
         <v>2.6538000000000008</v>
       </c>
       <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>1721.54</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -1106,7 +1017,7 @@
         <v>41571</v>
       </c>
       <c r="B11">
-        <v>0.49201299999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C11">
         <v>0.33226800000000001</v>
@@ -1124,7 +1035,7 @@
         <v>2.5219999999999998</v>
       </c>
       <c r="H11">
-        <v>0.42140040000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I11">
         <v>0.30509920000000001</v>
@@ -1142,10 +1053,10 @@
         <v>2.6086000000000009</v>
       </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>1746.38</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -1157,7 +1068,7 @@
         <v>41578</v>
       </c>
       <c r="B12">
-        <v>0.44966400000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C12">
         <v>0.33556999999999998</v>
@@ -1175,7 +1086,7 @@
         <v>2.5419999999999998</v>
       </c>
       <c r="H12">
-        <v>0.43922440000000013</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I12">
         <v>0.3055466</v>
@@ -1193,10 +1104,10 @@
         <v>2.5884000000000009</v>
       </c>
       <c r="N12">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>1763.31</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -1208,7 +1119,7 @@
         <v>41585</v>
       </c>
       <c r="B13">
-        <v>0.45482899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C13">
         <v>0.32710299999999998</v>
@@ -1226,7 +1137,7 @@
         <v>2.613</v>
       </c>
       <c r="H13">
-        <v>0.4545146000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I13">
         <v>0.30677800000000011</v>
@@ -1244,10 +1155,10 @@
         <v>2.5898000000000012</v>
       </c>
       <c r="N13">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>1770.49</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -1259,7 +1170,7 @@
         <v>41592</v>
       </c>
       <c r="B14">
-        <v>0.39197500000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C14">
         <v>0.33333299999999999</v>
@@ -1277,7 +1188,7 @@
         <v>2.702</v>
       </c>
       <c r="H14">
-        <v>0.45025280000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I14">
         <v>0.32325999999999999</v>
@@ -1295,14 +1206,14 @@
         <v>2.5932000000000008</v>
       </c>
       <c r="N14">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1782</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1310,7 +1221,7 @@
         <v>41599</v>
       </c>
       <c r="B15">
-        <v>0.34393099999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C15">
         <v>0.36127199999999998</v>
@@ -1328,7 +1239,7 @@
         <v>2.7839999999999998</v>
       </c>
       <c r="H15">
-        <v>0.42648240000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I15">
         <v>0.33790920000000002</v>
@@ -1346,14 +1257,14 @@
         <v>2.6326000000000009</v>
       </c>
       <c r="N15">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>1781.37</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1361,7 +1272,7 @@
         <v>41613</v>
       </c>
       <c r="B16">
-        <v>0.42641499999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C16">
         <v>0.29811300000000002</v>
@@ -1379,7 +1290,7 @@
         <v>2.8620000000000001</v>
       </c>
       <c r="H16">
-        <v>0.41336280000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I16">
         <v>0.33107819999999999</v>
@@ -1397,10 +1308,10 @@
         <v>2.700600000000001</v>
       </c>
       <c r="N16">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1792.81</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -1412,7 +1323,7 @@
         <v>41620</v>
       </c>
       <c r="B17">
-        <v>0.41265099999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C17">
         <v>0.33734900000000001</v>
@@ -1430,7 +1341,7 @@
         <v>2.8769999999999998</v>
       </c>
       <c r="H17">
-        <v>0.4059602000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I17">
         <v>0.33143400000000001</v>
@@ -1448,10 +1359,10 @@
         <v>2.7676000000000012</v>
       </c>
       <c r="N17">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>1782.22</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
@@ -1463,7 +1374,7 @@
         <v>41627</v>
       </c>
       <c r="B18">
-        <v>0.474576</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C18">
         <v>0.27457599999999999</v>
@@ -1481,7 +1392,7 @@
         <v>2.9249999999999998</v>
       </c>
       <c r="H18">
-        <v>0.40990959999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I18">
         <v>0.32092860000000001</v>
@@ -1499,10 +1410,10 @@
         <v>2.830000000000001</v>
       </c>
       <c r="N18">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>1810.65</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
@@ -1514,7 +1425,7 @@
         <v>41634</v>
       </c>
       <c r="B19">
-        <v>0.550562</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C19">
         <v>0.26404499999999997</v>
@@ -1532,7 +1443,7 @@
         <v>2.99</v>
       </c>
       <c r="H19">
-        <v>0.44162699999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I19">
         <v>0.30707099999999993</v>
@@ -1550,10 +1461,10 @@
         <v>2.8876000000000022</v>
       </c>
       <c r="N19">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>1833.32</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
@@ -1565,7 +1476,7 @@
         <v>41641</v>
       </c>
       <c r="B20">
-        <v>0.43089399999999989</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C20">
         <v>0.27642299999999997</v>
@@ -1583,7 +1494,7 @@
         <v>2.9849999999999999</v>
       </c>
       <c r="H20">
-        <v>0.45901960000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I20">
         <v>0.29010119999999989</v>
@@ -1601,10 +1512,10 @@
         <v>2.9278000000000022</v>
       </c>
       <c r="N20">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1848.36</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
@@ -1616,7 +1527,7 @@
         <v>41648</v>
       </c>
       <c r="B21">
-        <v>0.43617</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C21">
         <v>0.31383</v>
@@ -1634,7 +1545,7 @@
         <v>2.9630000000000001</v>
       </c>
       <c r="H21">
-        <v>0.46097060000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I21">
         <v>0.29324459999999991</v>
@@ -1652,10 +1563,10 @@
         <v>2.9480000000000022</v>
       </c>
       <c r="N21">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>1837.49</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
@@ -1667,7 +1578,7 @@
         <v>41655</v>
       </c>
       <c r="B22">
-        <v>0.38991999999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C22">
         <v>0.39522499999999999</v>
@@ -1685,7 +1596,7 @@
         <v>2.843</v>
       </c>
       <c r="H22">
-        <v>0.45642440000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I22">
         <v>0.30481979999999992</v>
@@ -1703,10 +1614,10 @@
         <v>2.9412000000000029</v>
       </c>
       <c r="N22">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1848.38</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
@@ -1718,7 +1629,7 @@
         <v>41662</v>
       </c>
       <c r="B23">
-        <v>0.38120100000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C23">
         <v>0.38120100000000001</v>
@@ -1736,7 +1647,7 @@
         <v>2.7730000000000001</v>
       </c>
       <c r="H23">
-        <v>0.43774940000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I23">
         <v>0.3261447999999999</v>
@@ -1754,10 +1665,10 @@
         <v>2.9108000000000032</v>
       </c>
       <c r="N23">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1844.86</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
@@ -1769,7 +1680,7 @@
         <v>41669</v>
       </c>
       <c r="B24">
-        <v>0.32183899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C24">
         <v>0.35057500000000003</v>
@@ -1787,7 +1698,7 @@
         <v>2.6930000000000001</v>
       </c>
       <c r="H24">
-        <v>0.39200479999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I24">
         <v>0.34345079999999989</v>
@@ -1805,10 +1716,10 @@
         <v>2.851400000000003</v>
       </c>
       <c r="N24">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1844.86</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
@@ -1820,7 +1731,7 @@
         <v>41676</v>
       </c>
       <c r="B25">
-        <v>0.27895999999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C25">
         <v>0.35697400000000001</v>
@@ -1838,7 +1749,7 @@
         <v>2.702</v>
       </c>
       <c r="H25">
-        <v>0.36161799999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I25">
         <v>0.35956100000000002</v>
@@ -1856,10 +1767,10 @@
         <v>2.7948000000000031</v>
       </c>
       <c r="N25">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>1751.64</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
@@ -1871,7 +1782,7 @@
         <v>41683</v>
       </c>
       <c r="B26">
-        <v>0.401478</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C26">
         <v>0.325123</v>
@@ -1889,7 +1800,7 @@
         <v>2.7360000000000002</v>
       </c>
       <c r="H26">
-        <v>0.35467959999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I26">
         <v>0.36181960000000002</v>
@@ -1907,10 +1818,10 @@
         <v>2.7494000000000032</v>
       </c>
       <c r="N26">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>1819.26</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
@@ -1922,7 +1833,7 @@
         <v>41690</v>
       </c>
       <c r="B27">
-        <v>0.42199999999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C27">
         <v>0.35</v>
@@ -1940,7 +1851,7 @@
         <v>2.754</v>
       </c>
       <c r="H27">
-        <v>0.36109560000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I27">
         <v>0.35277459999999988</v>
@@ -1958,10 +1869,10 @@
         <v>2.731600000000002</v>
       </c>
       <c r="N27">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>1828.75</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
@@ -1973,7 +1884,7 @@
         <v>41697</v>
       </c>
       <c r="B28">
-        <v>0.39690700000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C28">
         <v>0.39175300000000002</v>
@@ -1991,7 +1902,7 @@
         <v>2.6419999999999999</v>
       </c>
       <c r="H28">
-        <v>0.36423680000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I28">
         <v>0.35488500000000001</v>
@@ -2009,10 +1920,10 @@
         <v>2.7054000000000018</v>
       </c>
       <c r="N28">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>1845.16</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
@@ -2024,7 +1935,7 @@
         <v>41704</v>
       </c>
       <c r="B29">
-        <v>0.40509899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C29">
         <v>0.32861200000000002</v>
@@ -2042,7 +1953,7 @@
         <v>2.7370000000000001</v>
       </c>
       <c r="H29">
-        <v>0.38088880000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I29">
         <v>0.35049239999999998</v>
@@ -2060,10 +1971,10 @@
         <v>2.7142000000000022</v>
       </c>
       <c r="N29">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1873.81</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
@@ -2075,7 +1986,7 @@
         <v>41711</v>
       </c>
       <c r="B30">
-        <v>0.413408</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C30">
         <v>0.318436</v>
@@ -2093,7 +2004,7 @@
         <v>2.653</v>
       </c>
       <c r="H30">
-        <v>0.40777839999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I30">
         <v>0.34278480000000011</v>
@@ -2111,10 +2022,10 @@
         <v>2.7044000000000019</v>
       </c>
       <c r="N30">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1868.2</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
@@ -2126,7 +2037,7 @@
         <v>41718</v>
       </c>
       <c r="B31">
-        <v>0.36781599999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C31">
         <v>0.37069000000000002</v>
@@ -2144,7 +2055,7 @@
         <v>2.7749999999999999</v>
       </c>
       <c r="H31">
-        <v>0.40104600000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I31">
         <v>0.35189819999999999</v>
@@ -2162,10 +2073,10 @@
         <v>2.7122000000000019</v>
       </c>
       <c r="N31">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1860.77</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
@@ -2177,7 +2088,7 @@
         <v>41725</v>
       </c>
       <c r="B32">
-        <v>0.31161499999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C32">
         <v>0.40226600000000001</v>
@@ -2195,7 +2106,7 @@
         <v>2.6720000000000002</v>
       </c>
       <c r="H32">
-        <v>0.378969</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I32">
         <v>0.36235139999999999</v>
@@ -2213,10 +2124,10 @@
         <v>2.695800000000002</v>
       </c>
       <c r="N32">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>1852.56</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
@@ -2228,7 +2139,7 @@
         <v>41732</v>
       </c>
       <c r="B33">
-        <v>0.35357100000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C33">
         <v>0.37857099999999999</v>
@@ -2246,7 +2157,7 @@
         <v>2.79</v>
       </c>
       <c r="H33">
-        <v>0.37030180000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I33">
         <v>0.35971500000000001</v>
@@ -2264,10 +2175,10 @@
         <v>2.7254000000000032</v>
       </c>
       <c r="N33">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1890.9</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
@@ -2279,7 +2190,7 @@
         <v>41739</v>
       </c>
       <c r="B34">
-        <v>0.28476800000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C34">
         <v>0.374172</v>
@@ -2297,7 +2208,7 @@
         <v>2.6280000000000001</v>
       </c>
       <c r="H34">
-        <v>0.34623560000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I34">
         <v>0.36882700000000002</v>
@@ -2315,10 +2226,10 @@
         <v>2.703600000000002</v>
       </c>
       <c r="N34">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1872.18</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
@@ -2330,7 +2241,7 @@
         <v>41746</v>
       </c>
       <c r="B35">
-        <v>0.272171</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C35">
         <v>0.38532100000000002</v>
@@ -2348,7 +2259,7 @@
         <v>2.7210000000000001</v>
       </c>
       <c r="H35">
-        <v>0.31798820000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I35">
         <v>0.38220399999999999</v>
@@ -2366,14 +2277,14 @@
         <v>2.7172000000000018</v>
       </c>
       <c r="N35">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>1862.31</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2381,7 +2292,7 @@
         <v>41753</v>
       </c>
       <c r="B36">
-        <v>0.34502899999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C36">
         <v>0.394737</v>
@@ -2399,7 +2310,7 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="H36">
-        <v>0.31343080000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I36">
         <v>0.38701340000000001</v>
@@ -2417,10 +2328,10 @@
         <v>2.699800000000002</v>
       </c>
       <c r="N36">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>1875.39</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
@@ -2432,7 +2343,7 @@
         <v>41760</v>
       </c>
       <c r="B37">
-        <v>0.29773500000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C37">
         <v>0.40776699999999999</v>
@@ -2450,7 +2361,7 @@
         <v>2.6059999999999999</v>
       </c>
       <c r="H37">
-        <v>0.31065480000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I37">
         <v>0.38811359999999989</v>
@@ -2468,14 +2379,14 @@
         <v>2.6866000000000021</v>
       </c>
       <c r="N37">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1883.95</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2483,7 +2394,7 @@
         <v>41767</v>
       </c>
       <c r="B38">
-        <v>0.283439</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C38">
         <v>0.42993599999999998</v>
@@ -2501,7 +2412,7 @@
         <v>2.6019999999999999</v>
       </c>
       <c r="H38">
-        <v>0.29662840000000013</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I38">
         <v>0.39838659999999998</v>
@@ -2519,14 +2430,14 @@
         <v>2.6490000000000018</v>
       </c>
       <c r="N38">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>1878.21</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2534,7 +2445,7 @@
         <v>41774</v>
       </c>
       <c r="B39">
-        <v>0.33121</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C39">
         <v>0.44267499999999999</v>
@@ -2552,7 +2463,7 @@
         <v>2.5019999999999998</v>
       </c>
       <c r="H39">
-        <v>0.30591680000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I39">
         <v>0.41208719999999988</v>
@@ -2570,14 +2481,14 @@
         <v>2.6238000000000019</v>
       </c>
       <c r="N39">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1888.53</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2585,7 +2496,7 @@
         <v>41781</v>
       </c>
       <c r="B40">
-        <v>0.30434800000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C40">
         <v>0.43167699999999998</v>
@@ -2603,7 +2514,7 @@
         <v>2.5550000000000002</v>
       </c>
       <c r="H40">
-        <v>0.31235220000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I40">
         <v>0.42135839999999991</v>
@@ -2621,10 +2532,10 @@
         <v>2.590600000000002</v>
       </c>
       <c r="N40">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>1888.03</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
@@ -2636,7 +2547,7 @@
         <v>41788</v>
       </c>
       <c r="B41">
-        <v>0.36464099999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C41">
         <v>0.40331499999999998</v>
@@ -2654,7 +2565,7 @@
         <v>2.4470000000000001</v>
       </c>
       <c r="H41">
-        <v>0.31627460000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I41">
         <v>0.42307399999999989</v>
@@ -2672,14 +2583,14 @@
         <v>2.542400000000002</v>
       </c>
       <c r="N41">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>1909.78</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2687,7 +2598,7 @@
         <v>41795</v>
       </c>
       <c r="B42">
-        <v>0.39506200000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C42">
         <v>0.382716</v>
@@ -2705,7 +2616,7 @@
         <v>2.5840000000000001</v>
       </c>
       <c r="H42">
-        <v>0.3357400000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I42">
         <v>0.41806379999999982</v>
@@ -2723,10 +2634,10 @@
         <v>2.538000000000002</v>
       </c>
       <c r="N42">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>1927.88</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
@@ -2738,7 +2649,7 @@
         <v>41802</v>
       </c>
       <c r="B43">
-        <v>0.44687500000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C43">
         <v>0.34062500000000001</v>
@@ -2756,7 +2667,7 @@
         <v>2.5859999999999999</v>
       </c>
       <c r="H43">
-        <v>0.36842720000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I43">
         <v>0.40020159999999982</v>
@@ -2774,10 +2685,10 @@
         <v>2.5348000000000011</v>
       </c>
       <c r="N43">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>1943.89</v>
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
@@ -2789,7 +2700,7 @@
         <v>41809</v>
       </c>
       <c r="B44">
-        <v>0.351744</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C44">
         <v>0.40697699999999998</v>
@@ -2807,7 +2718,7 @@
         <v>2.6219999999999999</v>
       </c>
       <c r="H44">
-        <v>0.3725340000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I44">
         <v>0.39306199999999991</v>
@@ -2825,10 +2736,10 @@
         <v>2.558800000000002</v>
       </c>
       <c r="N44">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>1956.98</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
@@ -2840,7 +2751,7 @@
         <v>41816</v>
       </c>
       <c r="B45">
-        <v>0.37220799999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C45">
         <v>0.41687299999999988</v>
@@ -2858,7 +2769,7 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="H45">
-        <v>0.38610600000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I45">
         <v>0.39010119999999981</v>
@@ -2876,10 +2787,10 @@
         <v>2.5528000000000022</v>
       </c>
       <c r="N45">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>1959.53</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
@@ -2891,7 +2802,7 @@
         <v>41823</v>
       </c>
       <c r="B46">
-        <v>0.385075</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C46">
         <v>0.39104499999999998</v>
@@ -2909,7 +2820,7 @@
         <v>2.6480000000000001</v>
       </c>
       <c r="H46">
-        <v>0.39019280000000017</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I46">
         <v>0.3876471999999998</v>
@@ -2927,10 +2838,10 @@
         <v>2.5930000000000009</v>
       </c>
       <c r="N46">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1974.62</v>
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
@@ -2942,7 +2853,7 @@
         <v>41830</v>
       </c>
       <c r="B47">
-        <v>0.37640400000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C47">
         <v>0.33707900000000002</v>
@@ -2960,7 +2871,7 @@
         <v>2.532</v>
       </c>
       <c r="H47">
-        <v>0.38646120000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I47">
         <v>0.3785197999999998</v>
@@ -2978,10 +2889,10 @@
         <v>2.582600000000002</v>
       </c>
       <c r="N47">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>1972.83</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
@@ -2993,7 +2904,7 @@
         <v>41837</v>
       </c>
       <c r="B48">
-        <v>0.323625</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C48">
         <v>0.39158599999999999</v>
@@ -3011,7 +2922,7 @@
         <v>2.4750000000000001</v>
       </c>
       <c r="H48">
-        <v>0.36181120000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I48">
         <v>0.38871199999999978</v>
@@ -3029,10 +2940,10 @@
         <v>2.5604000000000009</v>
       </c>
       <c r="N48">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>1981.57</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
@@ -3044,7 +2955,7 @@
         <v>41844</v>
       </c>
       <c r="B49">
-        <v>0.296296</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C49">
         <v>0.40432099999999999</v>
@@ -3062,7 +2973,7 @@
         <v>2.5089999999999999</v>
       </c>
       <c r="H49">
-        <v>0.35072160000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I49">
         <v>0.38818079999999988</v>
@@ -3080,10 +2991,10 @@
         <v>2.5378000000000021</v>
       </c>
       <c r="N49">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1987.01</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
@@ -3095,7 +3006,7 @@
         <v>41851</v>
       </c>
       <c r="B50">
-        <v>0.311224</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C50">
         <v>0.37755100000000003</v>
@@ -3113,7 +3024,7 @@
         <v>2.556</v>
       </c>
       <c r="H50">
-        <v>0.33852480000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I50">
         <v>0.38031639999999989</v>
@@ -3131,10 +3042,10 @@
         <v>2.5440000000000009</v>
       </c>
       <c r="N50">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1970.07</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
@@ -3146,7 +3057,7 @@
         <v>41858</v>
       </c>
       <c r="B51">
-        <v>0.308869</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C51">
         <v>0.308869</v>
@@ -3164,7 +3075,7 @@
         <v>2.4239999999999999</v>
       </c>
       <c r="H51">
-        <v>0.32328360000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I51">
         <v>0.3638811999999999</v>
@@ -3182,10 +3093,10 @@
         <v>2.499200000000001</v>
       </c>
       <c r="N51">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>1920.24</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
@@ -3197,7 +3108,7 @@
         <v>41865</v>
       </c>
       <c r="B52">
-        <v>0.398119</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C52">
         <v>0.33228799999999997</v>
@@ -3215,7 +3126,7 @@
         <v>2.4</v>
       </c>
       <c r="H52">
-        <v>0.32762660000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I52">
         <v>0.36292299999999988</v>
@@ -3233,10 +3144,10 @@
         <v>2.4728000000000021</v>
       </c>
       <c r="N52">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>1946.72</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
@@ -3248,7 +3159,7 @@
         <v>41872</v>
       </c>
       <c r="B53">
-        <v>0.46107799999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C53">
         <v>0.30239500000000002</v>
@@ -3266,7 +3177,7 @@
         <v>2.407</v>
       </c>
       <c r="H53">
-        <v>0.35511720000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I53">
         <v>0.34508479999999991</v>
@@ -3284,10 +3195,10 @@
         <v>2.4592000000000018</v>
       </c>
       <c r="N53">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>1986.51</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
@@ -3299,7 +3210,7 @@
         <v>41879</v>
       </c>
       <c r="B54">
-        <v>0.519231</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C54">
         <v>0.288462</v>
@@ -3317,7 +3228,7 @@
         <v>2.3340000000000001</v>
       </c>
       <c r="H54">
-        <v>0.39970420000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I54">
         <v>0.32191299999999989</v>
@@ -3335,10 +3246,10 @@
         <v>2.4242000000000021</v>
       </c>
       <c r="N54">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>2000.12</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
@@ -3350,7 +3261,7 @@
         <v>41886</v>
       </c>
       <c r="B55">
-        <v>0.44674599999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C55">
         <v>0.31360900000000003</v>
@@ -3368,7 +3279,7 @@
         <v>2.448</v>
       </c>
       <c r="H55">
-        <v>0.4268086000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I55">
         <v>0.30912459999999992</v>
@@ -3386,10 +3297,10 @@
         <v>2.4026000000000018</v>
       </c>
       <c r="N55">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>2000.72</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
@@ -3401,7 +3312,7 @@
         <v>41893</v>
       </c>
       <c r="B56">
-        <v>0.40384599999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C56">
         <v>0.33012799999999998</v>
@@ -3419,7 +3330,7 @@
         <v>2.5310000000000001</v>
       </c>
       <c r="H56">
-        <v>0.4458040000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I56">
         <v>0.31337639999999989</v>
@@ -3437,10 +3348,10 @@
         <v>2.4240000000000022</v>
       </c>
       <c r="N56">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>1995.69</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
@@ -3452,7 +3363,7 @@
         <v>41900</v>
       </c>
       <c r="B57">
-        <v>0.42236000000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C57">
         <v>0.34782600000000002</v>
@@ -3470,7 +3381,7 @@
         <v>2.629</v>
       </c>
       <c r="H57">
-        <v>0.45065220000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I57">
         <v>0.31648399999999988</v>
@@ -3488,10 +3399,10 @@
         <v>2.469800000000002</v>
       </c>
       <c r="N57">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>2001.57</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
@@ -3503,7 +3414,7 @@
         <v>41907</v>
       </c>
       <c r="B58">
-        <v>0.41836699999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C58">
         <v>0.29931999999999997</v>
@@ -3521,7 +3432,7 @@
         <v>2.5110000000000001</v>
       </c>
       <c r="H58">
-        <v>0.44211000000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I58">
         <v>0.3158689999999999</v>
@@ -3539,14 +3450,14 @@
         <v>2.4906000000000019</v>
       </c>
       <c r="N58">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1998.3</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3554,7 +3465,7 @@
         <v>41914</v>
       </c>
       <c r="B59">
-        <v>0.35416700000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C59">
         <v>0.33680599999999999</v>
@@ -3572,7 +3483,7 @@
         <v>2.4380000000000002</v>
       </c>
       <c r="H59">
-        <v>0.40909720000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I59">
         <v>0.32553779999999988</v>
@@ -3590,14 +3501,14 @@
         <v>2.5114000000000019</v>
       </c>
       <c r="N59">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>1946.16</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3605,7 +3516,7 @@
         <v>41921</v>
       </c>
       <c r="B60">
-        <v>0.39877299999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C60">
         <v>0.29141099999999998</v>
@@ -3623,7 +3534,7 @@
         <v>2.327</v>
       </c>
       <c r="H60">
-        <v>0.3995026000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I60">
         <v>0.32109819999999989</v>
@@ -3641,10 +3552,10 @@
         <v>2.4872000000000019</v>
       </c>
       <c r="N60">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1968.89</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
@@ -3656,7 +3567,7 @@
         <v>41928</v>
       </c>
       <c r="B61">
-        <v>0.42663000000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C61">
         <v>0.23641300000000001</v>
@@ -3674,7 +3585,7 @@
         <v>2.153</v>
       </c>
       <c r="H61">
-        <v>0.40405940000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I61">
         <v>0.30235519999999988</v>
@@ -3692,10 +3603,10 @@
         <v>2.4116000000000022</v>
       </c>
       <c r="N61">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>1862.49</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
@@ -3707,7 +3618,7 @@
         <v>41935</v>
       </c>
       <c r="B62">
-        <v>0.49687500000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C62">
         <v>0.27812500000000001</v>
@@ -3725,7 +3636,7 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="H62">
-        <v>0.41896240000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I62">
         <v>0.28841499999999992</v>
@@ -3743,10 +3654,10 @@
         <v>2.340800000000002</v>
       </c>
       <c r="N62">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>1927.11</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
@@ -3758,7 +3669,7 @@
         <v>41942</v>
       </c>
       <c r="B63">
-        <v>0.49371100000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C63">
         <v>0.295597</v>
@@ -3776,7 +3687,7 @@
         <v>2.3050000000000002</v>
       </c>
       <c r="H63">
-        <v>0.43403120000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I63">
         <v>0.28767039999999988</v>
@@ -3794,10 +3705,10 @@
         <v>2.299600000000003</v>
       </c>
       <c r="N63">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>1982.3</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
@@ -3809,7 +3720,7 @@
         <v>41949</v>
       </c>
       <c r="B64">
-        <v>0.52688199999999996</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C64">
         <v>0.32258100000000001</v>
@@ -3827,7 +3738,7 @@
         <v>2.375</v>
       </c>
       <c r="H64">
-        <v>0.46857420000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I64">
         <v>0.2848253999999999</v>
@@ -3845,10 +3756,10 @@
         <v>2.2870000000000021</v>
       </c>
       <c r="N64">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>2023.57</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
@@ -3860,7 +3771,7 @@
         <v>41956</v>
       </c>
       <c r="B65">
-        <v>0.57930999999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C65">
         <v>0.22758600000000001</v>
@@ -3878,7 +3789,7 @@
         <v>2.347</v>
       </c>
       <c r="H65">
-        <v>0.50468160000000017</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I65">
         <v>0.27206039999999992</v>
@@ -3896,10 +3807,10 @@
         <v>2.2910000000000021</v>
       </c>
       <c r="N65">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>2038.25</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
@@ -3911,7 +3822,7 @@
         <v>41963</v>
       </c>
       <c r="B66">
-        <v>0.491176</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C66">
         <v>0.270588</v>
@@ -3929,7 +3840,7 @@
         <v>2.335</v>
       </c>
       <c r="H66">
-        <v>0.51759080000000013</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I66">
         <v>0.2788953999999999</v>
@@ -3947,10 +3858,10 @@
         <v>2.3274000000000021</v>
       </c>
       <c r="N66">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>2048.7199999999998</v>
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
@@ -3962,7 +3873,7 @@
         <v>41977</v>
       </c>
       <c r="B67">
-        <v>0.42677799999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C67">
         <v>0.31380799999999998</v>
@@ -3980,7 +3891,7 @@
         <v>2.2570000000000001</v>
       </c>
       <c r="H67">
-        <v>0.50357140000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I67">
         <v>0.28603200000000001</v>
@@ -3998,14 +3909,14 @@
         <v>2.3238000000000021</v>
       </c>
       <c r="N67">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>2074.33</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="1">IF(1.17387091 * B67 + -1.28896617 * C67 + 0.113146579 * D67 + 1.06072433 * E67 + -0.0000195666063 * F67 + 0.747401113 * G67 + -0.0932243309 * H67 + -1.01756564 * I67 + 1.10965424 * J67 + -1.20287857 * K67 + 0.0232989827 * L67 + -0.843499847 * M67 + 0.16662908 &gt; 0, 1, 0)</f>
-        <v>1</v>
+        <f t="shared" ref="P67:P130" si="1">IF(-2.46914834676694 * B67+-1.8682208654342 * C67+0.186391377028163 * D67+1.49437631083417 * E67+-0.0363931120658708 * F67+0.217829273707781 * G67+-0.708794130176448 * H67+-0.666237113966236 * I67+1.19636185029295 * J67+-1.72750210891747 * K67+0.0550959718293999 * L67+-0.278500795201216 * M67+1.78551882735402 &gt; 0, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4013,7 +3924,7 @@
         <v>41984</v>
       </c>
       <c r="B68">
-        <v>0.45017200000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C68">
         <v>0.32645999999999997</v>
@@ -4031,7 +3942,7 @@
         <v>2.1779999999999999</v>
       </c>
       <c r="H68">
-        <v>0.49486360000000013</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I68">
         <v>0.29220459999999993</v>
@@ -4049,14 +3960,14 @@
         <v>2.2984000000000022</v>
       </c>
       <c r="N68">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>2026.14</v>
       </c>
       <c r="P68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4064,7 +3975,7 @@
         <v>41991</v>
       </c>
       <c r="B69">
-        <v>0.38735199999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C69">
         <v>0.34387400000000001</v>
@@ -4082,7 +3993,7 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="H69">
-        <v>0.46695760000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I69">
         <v>0.29646319999999993</v>
@@ -4100,14 +4011,14 @@
         <v>2.264200000000002</v>
       </c>
       <c r="N69">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>2012.89</v>
       </c>
       <c r="P69">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4115,7 +4026,7 @@
         <v>42012</v>
       </c>
       <c r="B70">
-        <v>0.41007199999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C70">
         <v>0.31295000000000001</v>
@@ -4133,7 +4044,7 @@
         <v>2.016</v>
       </c>
       <c r="H70">
-        <v>0.43311000000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I70">
         <v>0.31353599999999993</v>
@@ -4151,10 +4062,10 @@
         <v>2.1980000000000022</v>
       </c>
       <c r="N70">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>2025.9</v>
       </c>
       <c r="P70">
         <f t="shared" si="1"/>
@@ -4166,7 +4077,7 @@
         <v>42019</v>
       </c>
       <c r="B71">
-        <v>0.461059</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C71">
         <v>0.323988</v>
@@ -4184,7 +4095,7 @@
         <v>1.7749999999999999</v>
       </c>
       <c r="H71">
-        <v>0.42708660000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I71">
         <v>0.32421599999999989</v>
@@ -4202,10 +4113,10 @@
         <v>2.0860000000000021</v>
       </c>
       <c r="N71">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>2011.27</v>
       </c>
       <c r="P71">
         <f t="shared" si="1"/>
@@ -4217,7 +4128,7 @@
         <v>42026</v>
       </c>
       <c r="B72">
-        <v>0.37142900000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C72">
         <v>0.320635</v>
@@ -4235,7 +4146,7 @@
         <v>1.8959999999999999</v>
       </c>
       <c r="H72">
-        <v>0.41601680000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I72">
         <v>0.32558139999999991</v>
@@ -4253,10 +4164,10 @@
         <v>2.013800000000002</v>
       </c>
       <c r="N72">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>2032.12</v>
       </c>
       <c r="P72">
         <f t="shared" si="1"/>
@@ -4268,7 +4179,7 @@
         <v>42033</v>
       </c>
       <c r="B73">
-        <v>0.44171800000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C73">
         <v>0.33435599999999999</v>
@@ -4286,7 +4197,7 @@
         <v>1.7509999999999999</v>
       </c>
       <c r="H73">
-        <v>0.41432600000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I73">
         <v>0.32716059999999991</v>
@@ -4304,10 +4215,10 @@
         <v>1.9284000000000019</v>
       </c>
       <c r="N73">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>2002.16</v>
       </c>
       <c r="P73">
         <f t="shared" si="1"/>
@@ -4319,7 +4230,7 @@
         <v>42040</v>
       </c>
       <c r="B74">
-        <v>0.35494900000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C74">
         <v>0.32081900000000002</v>
@@ -4337,7 +4248,7 @@
         <v>1.8149999999999999</v>
       </c>
       <c r="H74">
-        <v>0.40784540000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I74">
         <v>0.32254959999999988</v>
@@ -4355,10 +4266,10 @@
         <v>1.850600000000002</v>
       </c>
       <c r="N74">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>2050.0300000000002</v>
       </c>
       <c r="P74">
         <f t="shared" si="1"/>
@@ -4370,7 +4281,7 @@
         <v>42047</v>
       </c>
       <c r="B75">
-        <v>0.4</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C75">
         <v>0.39672099999999999</v>
@@ -4388,7 +4299,7 @@
         <v>1.986</v>
       </c>
       <c r="H75">
-        <v>0.40583100000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I75">
         <v>0.33930379999999988</v>
@@ -4406,10 +4317,10 @@
         <v>1.844600000000002</v>
       </c>
       <c r="N75">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>2068.5300000000002</v>
       </c>
       <c r="P75">
         <f t="shared" si="1"/>
@@ -4421,7 +4332,7 @@
         <v>42054</v>
       </c>
       <c r="B76">
-        <v>0.47019899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C76">
         <v>0.350993</v>
@@ -4439,7 +4350,7 @@
         <v>2.113</v>
       </c>
       <c r="H76">
-        <v>0.4076590000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I76">
         <v>0.34470479999999998</v>
@@ -4457,10 +4368,10 @@
         <v>1.9122000000000019</v>
       </c>
       <c r="N76">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>2099.6799999999998</v>
       </c>
       <c r="P76">
         <f t="shared" si="1"/>
@@ -4472,7 +4383,7 @@
         <v>42061</v>
       </c>
       <c r="B77">
-        <v>0.45373100000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C77">
         <v>0.34328399999999998</v>
@@ -4490,7 +4401,7 @@
         <v>2.016</v>
       </c>
       <c r="H77">
-        <v>0.42411940000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I77">
         <v>0.34923460000000001</v>
@@ -4508,10 +4419,10 @@
         <v>1.9362000000000019</v>
       </c>
       <c r="N77">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>2113.86</v>
       </c>
       <c r="P77">
         <f t="shared" si="1"/>
@@ -4523,7 +4434,7 @@
         <v>42068</v>
       </c>
       <c r="B78">
-        <v>0.39802599999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C78">
         <v>0.368421</v>
@@ -4541,7 +4452,7 @@
         <v>2.1120000000000001</v>
       </c>
       <c r="H78">
-        <v>0.41538100000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I78">
         <v>0.35604760000000002</v>
@@ -4559,10 +4470,10 @@
         <v>2.0084000000000022</v>
       </c>
       <c r="N78">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>2098.5300000000002</v>
       </c>
       <c r="P78">
         <f t="shared" si="1"/>
@@ -4574,7 +4485,7 @@
         <v>42075</v>
       </c>
       <c r="B79">
-        <v>0.31596099999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C79">
         <v>0.42996699999999999</v>
@@ -4592,7 +4503,7 @@
         <v>2.0960000000000001</v>
       </c>
       <c r="H79">
-        <v>0.40758340000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I79">
         <v>0.37787720000000002</v>
@@ -4610,10 +4521,10 @@
         <v>2.0646000000000022</v>
       </c>
       <c r="N79">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>2040.24</v>
       </c>
       <c r="P79">
         <f t="shared" si="1"/>
@@ -4625,7 +4536,7 @@
         <v>42082</v>
       </c>
       <c r="B80">
-        <v>0.27160499999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C80">
         <v>0.41358</v>
@@ -4643,7 +4554,7 @@
         <v>1.9770000000000001</v>
       </c>
       <c r="H80">
-        <v>0.38190440000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I80">
         <v>0.38124899999999989</v>
@@ -4661,10 +4572,10 @@
         <v>2.062800000000002</v>
       </c>
       <c r="N80">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>2099.5</v>
       </c>
       <c r="P80">
         <f t="shared" si="1"/>
@@ -4676,7 +4587,7 @@
         <v>42089</v>
       </c>
       <c r="B81">
-        <v>0.38429799999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C81">
         <v>0.37190099999999998</v>
@@ -4694,7 +4605,7 @@
         <v>2.0070000000000001</v>
       </c>
       <c r="H81">
-        <v>0.36472420000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I81">
         <v>0.38543060000000001</v>
@@ -4712,10 +4623,10 @@
         <v>2.0416000000000021</v>
       </c>
       <c r="N81">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>2061.0500000000002</v>
       </c>
       <c r="P81">
         <f t="shared" si="1"/>
@@ -4727,7 +4638,7 @@
         <v>42096</v>
       </c>
       <c r="B82">
-        <v>0.35395199999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C82">
         <v>0.32645999999999997</v>
@@ -4745,7 +4656,7 @@
         <v>1.9039999999999999</v>
       </c>
       <c r="H82">
-        <v>0.3447684000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I82">
         <v>0.3820657999999999</v>
@@ -4763,10 +4674,10 @@
         <v>2.0192000000000019</v>
       </c>
       <c r="N82">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>2059.69</v>
       </c>
       <c r="P82">
         <f t="shared" si="1"/>
@@ -4778,7 +4689,7 @@
         <v>42103</v>
       </c>
       <c r="B83">
-        <v>0.28701599999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C83">
         <v>0.471526</v>
@@ -4796,7 +4707,7 @@
         <v>1.958</v>
       </c>
       <c r="H83">
-        <v>0.32256640000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I83">
         <v>0.40268679999999979</v>
@@ -4814,10 +4725,10 @@
         <v>1.9884000000000019</v>
       </c>
       <c r="N83">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>2081.9</v>
       </c>
       <c r="P83">
         <f t="shared" si="1"/>
@@ -4829,7 +4740,7 @@
         <v>42110</v>
       </c>
       <c r="B84">
-        <v>0.32067499999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C84">
         <v>0.45147700000000002</v>
@@ -4847,7 +4758,7 @@
         <v>1.8779999999999999</v>
       </c>
       <c r="H84">
-        <v>0.32350920000000027</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I84">
         <v>0.40698879999999987</v>
@@ -4865,14 +4776,14 @@
         <v>1.9448000000000021</v>
       </c>
       <c r="N84">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>2106.63</v>
       </c>
       <c r="P84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4880,7 +4791,7 @@
         <v>42117</v>
       </c>
       <c r="B85">
-        <v>0.31469999999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C85">
         <v>0.45341599999999999</v>
@@ -4898,7 +4809,7 @@
         <v>1.9470000000000001</v>
       </c>
       <c r="H85">
-        <v>0.33212820000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I85">
         <v>0.41495599999999982</v>
@@ -4916,10 +4827,10 @@
         <v>1.9388000000000021</v>
       </c>
       <c r="N85">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>2107.96</v>
       </c>
       <c r="P85">
         <f t="shared" si="1"/>
@@ -4931,7 +4842,7 @@
         <v>42124</v>
       </c>
       <c r="B86">
-        <v>0.30836200000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C86">
         <v>0.47212500000000002</v>
@@ -4949,7 +4860,7 @@
         <v>2.0459999999999998</v>
       </c>
       <c r="H86">
-        <v>0.31694100000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I86">
         <v>0.43500079999999991</v>
@@ -4967,10 +4878,10 @@
         <v>1.946600000000001</v>
       </c>
       <c r="N86">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>2106.85</v>
       </c>
       <c r="P86">
         <f t="shared" si="1"/>
@@ -4982,7 +4893,7 @@
         <v>42131</v>
       </c>
       <c r="B87">
-        <v>0.270563</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C87">
         <v>0.46103899999999998</v>
@@ -5000,7 +4911,7 @@
         <v>2.1840000000000002</v>
       </c>
       <c r="H87">
-        <v>0.30026320000000017</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I87">
         <v>0.4619165999999999</v>
@@ -5018,10 +4929,10 @@
         <v>2.0026000000000019</v>
       </c>
       <c r="N87">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>2080.15</v>
       </c>
       <c r="P87">
         <f t="shared" si="1"/>
@@ -5033,7 +4944,7 @@
         <v>42138</v>
       </c>
       <c r="B88">
-        <v>0.26744200000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C88">
         <v>0.46899200000000002</v>
@@ -5051,7 +4962,7 @@
         <v>2.2389999999999999</v>
       </c>
       <c r="H88">
-        <v>0.29634840000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I88">
         <v>0.46140979999999993</v>
@@ -5069,10 +4980,10 @@
         <v>2.058800000000002</v>
       </c>
       <c r="N88">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>2098.48</v>
       </c>
       <c r="P88">
         <f t="shared" si="1"/>
@@ -5084,7 +4995,7 @@
         <v>42145</v>
       </c>
       <c r="B89">
-        <v>0.25211899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C89">
         <v>0.49788100000000002</v>
@@ -5102,7 +5013,7 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="H89">
-        <v>0.2826372000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I89">
         <v>0.4706905999999999</v>
@@ -5120,10 +5031,10 @@
         <v>2.1202000000000019</v>
       </c>
       <c r="N89">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>2125.85</v>
       </c>
       <c r="P89">
         <f t="shared" si="1"/>
@@ -5135,7 +5046,7 @@
         <v>42152</v>
       </c>
       <c r="B90">
-        <v>0.27001900000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C90">
         <v>0.47858499999999998</v>
@@ -5153,7 +5064,7 @@
         <v>2.13</v>
       </c>
       <c r="H90">
-        <v>0.27370100000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I90">
         <v>0.47572439999999999</v>
@@ -5171,10 +5082,10 @@
         <v>2.1568000000000018</v>
       </c>
       <c r="N90">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>2123.48</v>
       </c>
       <c r="P90">
         <f t="shared" si="1"/>
@@ -5186,7 +5097,7 @@
         <v>42159</v>
       </c>
       <c r="B91">
-        <v>0.273399</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C91">
         <v>0.480296</v>
@@ -5204,7 +5115,7 @@
         <v>2.3069999999999999</v>
       </c>
       <c r="H91">
-        <v>0.26670840000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I91">
         <v>0.47735860000000002</v>
@@ -5222,10 +5133,10 @@
         <v>2.2090000000000019</v>
       </c>
       <c r="N91">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>2114.0700000000002</v>
       </c>
       <c r="P91">
         <f t="shared" si="1"/>
@@ -5237,7 +5148,7 @@
         <v>42166</v>
       </c>
       <c r="B92">
-        <v>0.200375</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C92">
         <v>0.47378300000000001</v>
@@ -5255,7 +5166,7 @@
         <v>2.383</v>
       </c>
       <c r="H92">
-        <v>0.2526708000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I92">
         <v>0.47990739999999998</v>
@@ -5273,10 +5184,10 @@
         <v>2.2488000000000019</v>
       </c>
       <c r="N92">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>2105.1999999999998</v>
       </c>
       <c r="P92">
         <f t="shared" si="1"/>
@@ -5288,7 +5199,7 @@
         <v>42173</v>
       </c>
       <c r="B93">
-        <v>0.254083</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C93">
         <v>0.40290399999999998</v>
@@ -5306,7 +5217,7 @@
         <v>2.351</v>
       </c>
       <c r="H93">
-        <v>0.24999900000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I93">
         <v>0.46668979999999999</v>
@@ -5324,10 +5235,10 @@
         <v>2.2712000000000021</v>
       </c>
       <c r="N93">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>2100.44</v>
       </c>
       <c r="P93">
         <f t="shared" si="1"/>
@@ -5339,7 +5250,7 @@
         <v>42180</v>
       </c>
       <c r="B94">
-        <v>0.35555599999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C94">
         <v>0.42777799999999999</v>
@@ -5357,7 +5268,7 @@
         <v>2.3929999999999998</v>
       </c>
       <c r="H94">
-        <v>0.27068640000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I94">
         <v>0.45266919999999999</v>
@@ -5375,10 +5286,10 @@
         <v>2.312800000000002</v>
       </c>
       <c r="N94">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>2108.58</v>
       </c>
       <c r="P94">
         <f t="shared" si="1"/>
@@ -5390,7 +5301,7 @@
         <v>42187</v>
       </c>
       <c r="B95">
-        <v>0.22612099999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C95">
         <v>0.42300199999999999</v>
@@ -5408,7 +5319,7 @@
         <v>2.3929999999999998</v>
       </c>
       <c r="H95">
-        <v>0.26190680000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I95">
         <v>0.44155260000000002</v>
@@ -5426,10 +5337,10 @@
         <v>2.3654000000000019</v>
       </c>
       <c r="N95">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>2077.42</v>
       </c>
       <c r="P95">
         <f t="shared" si="1"/>
@@ -5441,7 +5352,7 @@
         <v>42194</v>
       </c>
       <c r="B96">
-        <v>0.27906999999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C96">
         <v>0.42917499999999997</v>
@@ -5459,7 +5370,7 @@
         <v>2.3010000000000002</v>
       </c>
       <c r="H96">
-        <v>0.26304100000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I96">
         <v>0.43132839999999989</v>
@@ -5477,10 +5388,10 @@
         <v>2.3642000000000021</v>
       </c>
       <c r="N96">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>2046.68</v>
       </c>
       <c r="P96">
         <f t="shared" si="1"/>
@@ -5492,7 +5403,7 @@
         <v>42201</v>
       </c>
       <c r="B97">
-        <v>0.30810799999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C97">
         <v>0.45945900000000001</v>
@@ -5510,7 +5421,7 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="H97">
-        <v>0.28458760000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I97">
         <v>0.42846359999999989</v>
@@ -5528,10 +5439,10 @@
         <v>2.3580000000000019</v>
       </c>
       <c r="N97">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>1</v>
+        <v>2107.4</v>
       </c>
       <c r="P97">
         <f t="shared" si="1"/>
@@ -5543,7 +5454,7 @@
         <v>42208</v>
       </c>
       <c r="B98">
-        <v>0.32540000000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C98">
         <v>0.41870000000000002</v>
@@ -5561,7 +5472,7 @@
         <v>2.2770000000000001</v>
       </c>
       <c r="H98">
-        <v>0.29885100000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I98">
         <v>0.43162279999999992</v>
@@ -5579,14 +5490,14 @@
         <v>2.3432000000000022</v>
       </c>
       <c r="N98">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>2114.15</v>
       </c>
       <c r="P98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5594,7 +5505,7 @@
         <v>42215</v>
       </c>
       <c r="B99">
-        <v>0.21105499999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C99">
         <v>0.38191000000000003</v>
@@ -5612,7 +5523,7 @@
         <v>2.2679999999999998</v>
       </c>
       <c r="H99">
-        <v>0.26995080000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I99">
         <v>0.42244919999999991</v>
@@ -5630,10 +5541,10 @@
         <v>2.3182000000000018</v>
       </c>
       <c r="N99">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>2108.5700000000002</v>
       </c>
       <c r="P99">
         <f t="shared" si="1"/>
@@ -5645,7 +5556,7 @@
         <v>42222</v>
       </c>
       <c r="B100">
-        <v>0.24318699999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C100">
         <v>0.44025199999999998</v>
@@ -5663,7 +5574,7 @@
         <v>2.234</v>
       </c>
       <c r="H100">
-        <v>0.27336400000000027</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I100">
         <v>0.42589919999999992</v>
@@ -5681,10 +5592,10 @@
         <v>2.2864000000000009</v>
       </c>
       <c r="N100">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>2099.84</v>
       </c>
       <c r="P100">
         <f t="shared" si="1"/>
@@ -5696,7 +5607,7 @@
         <v>42229</v>
       </c>
       <c r="B101">
-        <v>0.30451899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C101">
         <v>0.33398800000000001</v>
@@ -5714,7 +5625,7 @@
         <v>2.1890000000000001</v>
       </c>
       <c r="H101">
-        <v>0.27845380000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I101">
         <v>0.4068618</v>
@@ -5732,10 +5643,10 @@
         <v>2.264000000000002</v>
       </c>
       <c r="N101">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>2086.0500000000002</v>
       </c>
       <c r="P101">
         <f t="shared" si="1"/>
@@ -5747,7 +5658,7 @@
         <v>42236</v>
       </c>
       <c r="B102">
-        <v>0.26819900000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C102">
         <v>0.39846700000000002</v>
@@ -5765,7 +5676,7 @@
         <v>2.0840000000000001</v>
       </c>
       <c r="H102">
-        <v>0.27047200000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I102">
         <v>0.3946634</v>
@@ -5783,10 +5694,10 @@
         <v>2.2104000000000008</v>
       </c>
       <c r="N102">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>2079.61</v>
       </c>
       <c r="P102">
         <f t="shared" si="1"/>
@@ -5798,7 +5709,7 @@
         <v>42243</v>
       </c>
       <c r="B103">
-        <v>0.32500000000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C103">
         <v>0.29230800000000001</v>
@@ -5816,7 +5727,7 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="H103">
-        <v>0.27039200000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I103">
         <v>0.36938500000000002</v>
@@ -5834,10 +5745,10 @@
         <v>2.188600000000001</v>
       </c>
       <c r="N103">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <v>1940.51</v>
       </c>
       <c r="P103">
         <f t="shared" si="1"/>
@@ -5849,7 +5760,7 @@
         <v>42250</v>
       </c>
       <c r="B104">
-        <v>0.32384299999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C104">
         <v>0.359431</v>
@@ -5867,7 +5778,7 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="H104">
-        <v>0.2929496000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I104">
         <v>0.36488920000000002</v>
@@ -5885,10 +5796,10 @@
         <v>2.168600000000001</v>
       </c>
       <c r="N104">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>1948.86</v>
       </c>
       <c r="P104">
         <f t="shared" si="1"/>
@@ -5900,7 +5811,7 @@
         <v>42257</v>
       </c>
       <c r="B105">
-        <v>0.346499</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C105">
         <v>0.30341099999999999</v>
@@ -5918,7 +5829,7 @@
         <v>2.222</v>
       </c>
       <c r="H105">
-        <v>0.31361200000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I105">
         <v>0.33752100000000002</v>
@@ -5936,10 +5847,10 @@
         <v>2.1662000000000008</v>
       </c>
       <c r="N105">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>1</v>
+        <v>1942.04</v>
       </c>
       <c r="P105">
         <f t="shared" si="1"/>
@@ -5951,7 +5862,7 @@
         <v>42264</v>
       </c>
       <c r="B106">
-        <v>0.33264500000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C106">
         <v>0.37603300000000001</v>
@@ -5969,7 +5880,7 @@
         <v>2.2170000000000001</v>
       </c>
       <c r="H106">
-        <v>0.31923720000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I106">
         <v>0.34593000000000002</v>
@@ -5987,10 +5898,10 @@
         <v>2.171800000000002</v>
       </c>
       <c r="N106">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>1995.31</v>
       </c>
       <c r="P106">
         <f t="shared" si="1"/>
@@ -6002,7 +5913,7 @@
         <v>42271</v>
       </c>
       <c r="B107">
-        <v>0.32119900000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C107">
         <v>0.39186300000000002</v>
@@ -6020,7 +5931,7 @@
         <v>2.12</v>
       </c>
       <c r="H107">
-        <v>0.32983720000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I107">
         <v>0.3446092</v>
@@ -6038,10 +5949,10 @@
         <v>2.1790000000000012</v>
       </c>
       <c r="N107">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>1966.97</v>
       </c>
       <c r="P107">
         <f t="shared" si="1"/>
@@ -6053,7 +5964,7 @@
         <v>42278</v>
       </c>
       <c r="B108">
-        <v>0.281059</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C108">
         <v>0.31975599999999998</v>
@@ -6071,7 +5982,7 @@
         <v>2.0419999999999998</v>
       </c>
       <c r="H108">
-        <v>0.32104900000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I108">
         <v>0.35009879999999999</v>
@@ -6089,10 +6000,10 @@
         <v>2.1538000000000008</v>
       </c>
       <c r="N108">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>1884.09</v>
       </c>
       <c r="P108">
         <f t="shared" si="1"/>
@@ -6104,7 +6015,7 @@
         <v>42285</v>
       </c>
       <c r="B109">
-        <v>0.37523800000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C109">
         <v>0.34285700000000002</v>
@@ -6122,7 +6033,7 @@
         <v>2.1080000000000001</v>
       </c>
       <c r="H109">
-        <v>0.33132800000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I109">
         <v>0.34678399999999998</v>
@@ -6140,10 +6051,10 @@
         <v>2.1418000000000008</v>
       </c>
       <c r="N109">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>1995.83</v>
       </c>
       <c r="P109">
         <f t="shared" si="1"/>
@@ -6155,7 +6066,7 @@
         <v>42292</v>
       </c>
       <c r="B110">
-        <v>0.34081600000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C110">
         <v>0.38775500000000002</v>
@@ -6173,7 +6084,7 @@
         <v>2.0230000000000001</v>
       </c>
       <c r="H110">
-        <v>0.33019140000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I110">
         <v>0.3636528</v>
@@ -6191,10 +6102,10 @@
         <v>2.1020000000000012</v>
       </c>
       <c r="N110">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>1994.24</v>
       </c>
       <c r="P110">
         <f t="shared" si="1"/>
@@ -6206,7 +6117,7 @@
         <v>42299</v>
       </c>
       <c r="B111">
-        <v>0.34765600000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C111">
         <v>0.412109</v>
@@ -6224,7 +6135,7 @@
         <v>2.0249999999999999</v>
       </c>
       <c r="H111">
-        <v>0.33319360000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I111">
         <v>0.37086799999999998</v>
@@ -6242,10 +6153,10 @@
         <v>2.063600000000001</v>
       </c>
       <c r="N111">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>1</v>
+        <v>2018.94</v>
       </c>
       <c r="P111">
         <f t="shared" si="1"/>
@@ -6257,7 +6168,7 @@
         <v>42306</v>
       </c>
       <c r="B112">
-        <v>0.403922</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C112">
         <v>0.39019599999999999</v>
@@ -6275,7 +6186,7 @@
         <v>2.173</v>
       </c>
       <c r="H112">
-        <v>0.34973820000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I112">
         <v>0.37053459999999999</v>
@@ -6293,10 +6204,10 @@
         <v>2.0742000000000012</v>
       </c>
       <c r="N112">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>1</v>
+        <v>2090.35</v>
       </c>
       <c r="P112">
         <f t="shared" si="1"/>
@@ -6308,7 +6219,7 @@
         <v>42313</v>
       </c>
       <c r="B113">
-        <v>0.39</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C113">
         <v>0.42399999999999999</v>
@@ -6326,7 +6237,7 @@
         <v>2.2450000000000001</v>
       </c>
       <c r="H113">
-        <v>0.37152640000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I113">
         <v>0.39138339999999999</v>
@@ -6344,10 +6255,10 @@
         <v>2.114800000000002</v>
       </c>
       <c r="N113">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>2102.31</v>
       </c>
       <c r="P113">
         <f t="shared" si="1"/>
@@ -6359,7 +6270,7 @@
         <v>42320</v>
       </c>
       <c r="B114">
-        <v>0.342723</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C114">
         <v>0.42723</v>
@@ -6377,7 +6288,7 @@
         <v>2.319</v>
       </c>
       <c r="H114">
-        <v>0.36502340000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I114">
         <v>0.40825800000000012</v>
@@ -6395,14 +6306,14 @@
         <v>2.1570000000000009</v>
       </c>
       <c r="N114">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>2075</v>
       </c>
       <c r="P114">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6410,7 +6321,7 @@
         <v>42327</v>
       </c>
       <c r="B115">
-        <v>0.30769200000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C115">
         <v>0.38681300000000002</v>
@@ -6428,7 +6339,7 @@
         <v>2.2480000000000002</v>
       </c>
       <c r="H115">
-        <v>0.35839860000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I115">
         <v>0.40806960000000009</v>
@@ -6446,10 +6357,10 @@
         <v>2.2020000000000022</v>
       </c>
       <c r="N115">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>2083.58</v>
       </c>
       <c r="P115">
         <f t="shared" si="1"/>
@@ -6461,7 +6372,7 @@
         <v>42341</v>
       </c>
       <c r="B116">
-        <v>0.294931</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C116">
         <v>0.49308800000000003</v>
@@ -6479,7 +6390,7 @@
         <v>2.33</v>
       </c>
       <c r="H116">
-        <v>0.34785360000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I116">
         <v>0.42426540000000018</v>
@@ -6497,10 +6408,10 @@
         <v>2.2630000000000021</v>
       </c>
       <c r="N116">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>2079.5100000000002</v>
       </c>
       <c r="P116">
         <f t="shared" si="1"/>
@@ -6512,7 +6423,7 @@
         <v>42348</v>
       </c>
       <c r="B117">
-        <v>0.285057</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C117">
         <v>0.41609200000000002</v>
@@ -6530,7 +6441,7 @@
         <v>2.2389999999999999</v>
       </c>
       <c r="H117">
-        <v>0.32408060000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I117">
         <v>0.42944460000000018</v>
@@ -6548,10 +6459,10 @@
         <v>2.276200000000002</v>
       </c>
       <c r="N117">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>2047.62</v>
       </c>
       <c r="P117">
         <f t="shared" si="1"/>
@@ -6563,7 +6474,7 @@
         <v>42355</v>
       </c>
       <c r="B118">
-        <v>0.23866299999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C118">
         <v>0.36754199999999998</v>
@@ -6581,7 +6492,7 @@
         <v>2.238</v>
       </c>
       <c r="H118">
-        <v>0.29381320000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I118">
         <v>0.41815300000000011</v>
@@ -6599,10 +6510,10 @@
         <v>2.2748000000000022</v>
       </c>
       <c r="N118">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>2073.0700000000002</v>
       </c>
       <c r="P118">
         <f t="shared" si="1"/>
@@ -6614,7 +6525,7 @@
         <v>42362</v>
       </c>
       <c r="B119">
-        <v>0.26380399999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C119">
         <v>0.42126799999999998</v>
@@ -6632,7 +6543,7 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="H119">
-        <v>0.2780294000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I119">
         <v>0.41696060000000018</v>
@@ -6650,10 +6561,10 @@
         <v>2.2596000000000021</v>
       </c>
       <c r="N119">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>2064.29</v>
       </c>
       <c r="P119">
         <f t="shared" si="1"/>
@@ -6665,7 +6576,7 @@
         <v>42369</v>
       </c>
       <c r="B120">
-        <v>0.25072899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C120">
         <v>0.51312000000000002</v>
@@ -6683,7 +6594,7 @@
         <v>2.2690000000000001</v>
       </c>
       <c r="H120">
-        <v>0.26663680000000017</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I120">
         <v>0.44222200000000011</v>
@@ -6701,10 +6612,10 @@
         <v>2.263800000000002</v>
       </c>
       <c r="N120">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>2063.36</v>
       </c>
       <c r="P120">
         <f t="shared" si="1"/>
@@ -6716,7 +6627,7 @@
         <v>42376</v>
       </c>
       <c r="B121">
-        <v>0.22173899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C121">
         <v>0.395652</v>
@@ -6734,7 +6645,7 @@
         <v>2.153</v>
       </c>
       <c r="H121">
-        <v>0.25199840000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I121">
         <v>0.42273480000000008</v>
@@ -6752,10 +6663,10 @@
         <v>2.2284000000000019</v>
       </c>
       <c r="N121">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>1990.26</v>
       </c>
       <c r="P121">
         <f t="shared" si="1"/>
@@ -6767,7 +6678,7 @@
         <v>42383</v>
       </c>
       <c r="B122">
-        <v>0.17898800000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C122">
         <v>0.365759</v>
@@ -6785,7 +6696,7 @@
         <v>2.0979999999999999</v>
       </c>
       <c r="H122">
-        <v>0.23078460000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I122">
         <v>0.41266820000000021</v>
@@ -6803,14 +6714,14 @@
         <v>2.2002000000000019</v>
       </c>
       <c r="N122">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>1890.28</v>
       </c>
       <c r="P122">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6818,7 +6729,7 @@
         <v>42390</v>
       </c>
       <c r="B123">
-        <v>0.21521000000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C123">
         <v>0.29773500000000003</v>
@@ -6836,7 +6747,7 @@
         <v>2.0190000000000001</v>
       </c>
       <c r="H123">
-        <v>0.2260940000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I123">
         <v>0.39870680000000008</v>
@@ -6854,10 +6765,10 @@
         <v>2.1564000000000019</v>
       </c>
       <c r="N123">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>1859.33</v>
       </c>
       <c r="P123">
         <f t="shared" si="1"/>
@@ -6869,7 +6780,7 @@
         <v>42397</v>
       </c>
       <c r="B124">
-        <v>0.29753499999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C124">
         <v>0.302817</v>
@@ -6887,7 +6798,7 @@
         <v>1.9850000000000001</v>
       </c>
       <c r="H124">
-        <v>0.23284020000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I124">
         <v>0.37501660000000009</v>
@@ -6905,10 +6816,10 @@
         <v>2.1048000000000018</v>
       </c>
       <c r="N124">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>1</v>
+        <v>1882.95</v>
       </c>
       <c r="P124">
         <f t="shared" si="1"/>
@@ -6920,7 +6831,7 @@
         <v>42404</v>
       </c>
       <c r="B125">
-        <v>0.27547199999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C125">
         <v>0.37735800000000003</v>
@@ -6938,7 +6849,7 @@
         <v>1.8640000000000001</v>
       </c>
       <c r="H125">
-        <v>0.23778880000000011</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I125">
         <v>0.34786420000000012</v>
@@ -6956,10 +6867,10 @@
         <v>2.0238000000000018</v>
       </c>
       <c r="N125">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>1912.53</v>
       </c>
       <c r="P125">
         <f t="shared" si="1"/>
@@ -6971,7 +6882,7 @@
         <v>42411</v>
       </c>
       <c r="B126">
-        <v>0.192385</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C126">
         <v>0.32064100000000001</v>
@@ -6989,7 +6900,7 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="H126">
-        <v>0.23191800000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I126">
         <v>0.3328620000000001</v>
@@ -7007,10 +6918,10 @@
         <v>1.9220000000000019</v>
       </c>
       <c r="N126">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>1</v>
+        <v>1851.86</v>
       </c>
       <c r="P126">
         <f t="shared" si="1"/>
@@ -7022,7 +6933,7 @@
         <v>42418</v>
       </c>
       <c r="B127">
-        <v>0.27560499999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C127">
         <v>0.34636899999999998</v>
@@ -7040,7 +6951,7 @@
         <v>1.7589999999999999</v>
       </c>
       <c r="H127">
-        <v>0.25124140000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I127">
         <v>0.32898400000000011</v>
@@ -7058,10 +6969,10 @@
         <v>1.8542000000000021</v>
       </c>
       <c r="N127">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>1926.82</v>
       </c>
       <c r="P127">
         <f t="shared" si="1"/>
@@ -7073,7 +6984,7 @@
         <v>42425</v>
       </c>
       <c r="B128">
-        <v>0.31194699999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C128">
         <v>0.373894</v>
@@ -7091,7 +7002,7 @@
         <v>1.6970000000000001</v>
       </c>
       <c r="H128">
-        <v>0.27058880000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I128">
         <v>0.34421580000000018</v>
@@ -7109,10 +7020,10 @@
         <v>1.7898000000000021</v>
       </c>
       <c r="N128">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>1</v>
+        <v>1929.8</v>
       </c>
       <c r="P128">
         <f t="shared" si="1"/>
@@ -7124,7 +7035,7 @@
         <v>42432</v>
       </c>
       <c r="B129">
-        <v>0.320158</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C129">
         <v>0.38735199999999997</v>
@@ -7142,7 +7053,7 @@
         <v>1.83</v>
       </c>
       <c r="H129">
-        <v>0.27511340000000017</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I129">
         <v>0.36112280000000008</v>
@@ -7160,10 +7071,10 @@
         <v>1.7588000000000019</v>
       </c>
       <c r="N129">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>1</v>
+        <v>1986.45</v>
       </c>
       <c r="P129">
         <f t="shared" si="1"/>
@@ -7175,7 +7086,7 @@
         <v>42439</v>
       </c>
       <c r="B130">
-        <v>0.37357600000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C130">
         <v>0.38268799999999997</v>
@@ -7193,7 +7104,7 @@
         <v>1.929</v>
       </c>
       <c r="H130">
-        <v>0.29473420000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I130">
         <v>0.36218880000000009</v>
@@ -7211,10 +7122,10 @@
         <v>1.771800000000002</v>
       </c>
       <c r="N130">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O130">
-        <v>1</v>
+        <v>1989.26</v>
       </c>
       <c r="P130">
         <f t="shared" si="1"/>
@@ -7226,7 +7137,7 @@
         <v>42446</v>
       </c>
       <c r="B131">
-        <v>0.29958699999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C131">
         <v>0.43181799999999998</v>
@@ -7244,7 +7155,7 @@
         <v>1.903</v>
       </c>
       <c r="H131">
-        <v>0.31617460000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I131">
         <v>0.38442420000000022</v>
@@ -7262,13 +7173,13 @@
         <v>1.8236000000000021</v>
       </c>
       <c r="N131">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>1</v>
+        <v>2027.2190000000001</v>
       </c>
       <c r="P131">
-        <f t="shared" ref="P131:P194" si="2">IF(1.17387091 * B131 + -1.28896617 * C131 + 0.113146579 * D131 + 1.06072433 * E131 + -0.0000195666063 * F131 + 0.747401113 * G131 + -0.0932243309 * H131 + -1.01756564 * I131 + 1.10965424 * J131 + -1.20287857 * K131 + 0.0232989827 * L131 + -0.843499847 * M131 + 0.16662908 &gt; 0, 1, 0)</f>
+        <f t="shared" ref="P131:P194" si="2">IF(-2.46914834676694 * B131+-1.8682208654342 * C131+0.186391377028163 * D131+1.49437631083417 * E131+-0.0363931120658708 * F131+0.217829273707781 * G131+-0.708794130176448 * H131+-0.666237113966236 * I131+1.19636185029295 * J131+-1.72750210891747 * K131+0.0550959718293999 * L131+-0.278500795201216 * M131+1.78551882735402 &gt; 0, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7277,7 +7188,7 @@
         <v>42453</v>
       </c>
       <c r="B132">
-        <v>0.337808</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C132">
         <v>0.42505599999999999</v>
@@ -7295,7 +7206,7 @@
         <v>1.9</v>
       </c>
       <c r="H132">
-        <v>0.32861520000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I132">
         <v>0.40016160000000012</v>
@@ -7313,10 +7224,10 @@
         <v>1.8518000000000019</v>
       </c>
       <c r="N132">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>2036.709961</v>
       </c>
       <c r="P132">
         <f t="shared" si="2"/>
@@ -7328,7 +7239,7 @@
         <v>42460</v>
       </c>
       <c r="B133">
-        <v>0.27180500000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C133">
         <v>0.47058800000000001</v>
@@ -7346,7 +7257,7 @@
         <v>1.786</v>
       </c>
       <c r="H133">
-        <v>0.32058680000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I133">
         <v>0.41950040000000011</v>
@@ -7364,10 +7275,10 @@
         <v>1.8696000000000019</v>
       </c>
       <c r="N133">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O133">
-        <v>1</v>
+        <v>2063.9499510000001</v>
       </c>
       <c r="P133">
         <f t="shared" si="2"/>
@@ -7379,7 +7290,7 @@
         <v>42467</v>
       </c>
       <c r="B134">
-        <v>0.32191799999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C134">
         <v>0.46346999999999999</v>
@@ -7397,7 +7308,7 @@
         <v>1.6910000000000001</v>
       </c>
       <c r="H134">
-        <v>0.32093880000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I134">
         <v>0.43472400000000011</v>
@@ -7415,10 +7326,10 @@
         <v>1.8418000000000021</v>
       </c>
       <c r="N134">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>1</v>
+        <v>2066.6599120000001</v>
       </c>
       <c r="P134">
         <f t="shared" si="2"/>
@@ -7430,7 +7341,7 @@
         <v>42474</v>
       </c>
       <c r="B135">
-        <v>0.27848099999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C135">
         <v>0.47257399999999999</v>
@@ -7448,7 +7359,7 @@
         <v>1.7809999999999999</v>
       </c>
       <c r="H135">
-        <v>0.30191980000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I135">
         <v>0.45270120000000008</v>
@@ -7466,10 +7377,10 @@
         <v>1.812200000000002</v>
       </c>
       <c r="N135">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O135">
-        <v>1</v>
+        <v>2082.419922</v>
       </c>
       <c r="P135">
         <f t="shared" si="2"/>
@@ -7481,7 +7392,7 @@
         <v>42481</v>
       </c>
       <c r="B136">
-        <v>0.33405200000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C136">
         <v>0.42672399999999999</v>
@@ -7499,7 +7410,7 @@
         <v>1.87</v>
       </c>
       <c r="H136">
-        <v>0.30881280000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I136">
         <v>0.45168240000000021</v>
@@ -7517,10 +7428,10 @@
         <v>1.8056000000000021</v>
       </c>
       <c r="N136">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>2102.3999020000001</v>
       </c>
       <c r="P136">
         <f t="shared" si="2"/>
@@ -7532,7 +7443,7 @@
         <v>42488</v>
       </c>
       <c r="B137">
-        <v>0.27366299999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C137">
         <v>0.44032900000000003</v>
@@ -7550,7 +7461,7 @@
         <v>1.8380000000000001</v>
       </c>
       <c r="H137">
-        <v>0.29598380000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I137">
         <v>0.45473700000000022</v>
@@ -7568,10 +7479,10 @@
         <v>1.7932000000000019</v>
       </c>
       <c r="N137">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>2095.1499020000001</v>
       </c>
       <c r="P137">
         <f t="shared" si="2"/>
@@ -7583,7 +7494,7 @@
         <v>42495</v>
       </c>
       <c r="B138">
-        <v>0.223301</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C138">
         <v>0.47330100000000003</v>
@@ -7601,7 +7512,7 @@
         <v>1.7470000000000001</v>
       </c>
       <c r="H138">
-        <v>0.28628300000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I138">
         <v>0.45527960000000017</v>
@@ -7619,10 +7530,10 @@
         <v>1.7854000000000021</v>
       </c>
       <c r="N138">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O138">
-        <v>1</v>
+        <v>2051.1201169999999</v>
       </c>
       <c r="P138">
         <f t="shared" si="2"/>
@@ -7634,7 +7545,7 @@
         <v>42502</v>
       </c>
       <c r="B139">
-        <v>0.20408200000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C139">
         <v>0.48299300000000001</v>
@@ -7652,7 +7563,7 @@
         <v>1.7569999999999999</v>
       </c>
       <c r="H139">
-        <v>0.26271580000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I139">
         <v>0.45918420000000032</v>
@@ -7670,10 +7581,10 @@
         <v>1.798600000000002</v>
       </c>
       <c r="N139">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>2064.459961</v>
       </c>
       <c r="P139">
         <f t="shared" si="2"/>
@@ -7685,7 +7596,7 @@
         <v>42509</v>
       </c>
       <c r="B140">
-        <v>0.193384</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C140">
         <v>0.46564899999999998</v>
@@ -7703,7 +7614,7 @@
         <v>1.845</v>
       </c>
       <c r="H140">
-        <v>0.2456964000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I140">
         <v>0.45779920000000029</v>
@@ -7721,10 +7632,10 @@
         <v>1.8114000000000019</v>
       </c>
       <c r="N140">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O140">
-        <v>1</v>
+        <v>2047.630005</v>
       </c>
       <c r="P140">
         <f t="shared" si="2"/>
@@ -7736,7 +7647,7 @@
         <v>42516</v>
       </c>
       <c r="B141">
-        <v>0.17751500000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C141">
         <v>0.52859999999999996</v>
@@ -7754,7 +7665,7 @@
         <v>1.823</v>
       </c>
       <c r="H141">
-        <v>0.21438900000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I141">
         <v>0.47817440000000022</v>
@@ -7772,10 +7683,10 @@
         <v>1.802000000000002</v>
       </c>
       <c r="N141">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O141">
-        <v>1</v>
+        <v>2090.540039</v>
       </c>
       <c r="P141">
         <f t="shared" si="2"/>
@@ -7787,7 +7698,7 @@
         <v>42523</v>
       </c>
       <c r="B142">
-        <v>0.301676</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C142">
         <v>0.40782099999999999</v>
@@ -7805,7 +7716,7 @@
         <v>1.8109999999999999</v>
       </c>
       <c r="H142">
-        <v>0.2199916000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I142">
         <v>0.47167280000000023</v>
@@ -7823,10 +7734,10 @@
         <v>1.796600000000002</v>
       </c>
       <c r="N142">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O142">
-        <v>1</v>
+        <v>2099.330078</v>
       </c>
       <c r="P142">
         <f t="shared" si="2"/>
@@ -7838,7 +7749,7 @@
         <v>42530</v>
       </c>
       <c r="B143">
-        <v>0.27831699999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C143">
         <v>0.44336599999999998</v>
@@ -7856,7 +7767,7 @@
         <v>1.68</v>
       </c>
       <c r="H143">
-        <v>0.23099480000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I143">
         <v>0.46568580000000009</v>
@@ -7874,14 +7785,14 @@
         <v>1.783200000000001</v>
       </c>
       <c r="N143">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O143">
-        <v>0</v>
+        <v>2112.1298830000001</v>
       </c>
       <c r="P143">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -7889,7 +7800,7 @@
         <v>42537</v>
       </c>
       <c r="B144">
-        <v>0.25347199999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C144">
         <v>0.37152800000000002</v>
@@ -7907,7 +7818,7 @@
         <v>1.5640000000000001</v>
       </c>
       <c r="H144">
-        <v>0.24087280000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I144">
         <v>0.44339280000000009</v>
@@ -7925,10 +7836,10 @@
         <v>1.744600000000001</v>
       </c>
       <c r="N144">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O144">
-        <v>1</v>
+        <v>2071.5</v>
       </c>
       <c r="P144">
         <f t="shared" si="2"/>
@@ -7940,7 +7851,7 @@
         <v>42544</v>
       </c>
       <c r="B145">
-        <v>0.219697</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C145">
         <v>0.42803000000000002</v>
@@ -7958,7 +7869,7 @@
         <v>1.7390000000000001</v>
       </c>
       <c r="H145">
-        <v>0.2461354000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I145">
         <v>0.43586900000000017</v>
@@ -7976,10 +7887,10 @@
         <v>1.723400000000002</v>
       </c>
       <c r="N145">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O145">
-        <v>0</v>
+        <v>2085.4499510000001</v>
       </c>
       <c r="P145">
         <f t="shared" si="2"/>
@@ -7991,7 +7902,7 @@
         <v>42551</v>
       </c>
       <c r="B146">
-        <v>0.28912500000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C146">
         <v>0.37665799999999999</v>
@@ -8009,7 +7920,7 @@
         <v>1.488</v>
       </c>
       <c r="H146">
-        <v>0.26845740000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I146">
         <v>0.40548060000000019</v>
@@ -8027,10 +7938,10 @@
         <v>1.656400000000001</v>
       </c>
       <c r="N146">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O146">
-        <v>1</v>
+        <v>2070.77</v>
       </c>
       <c r="P146">
         <f t="shared" si="2"/>
@@ -8042,7 +7953,7 @@
         <v>42558</v>
       </c>
       <c r="B147">
-        <v>0.31057299999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C147">
         <v>0.42290699999999998</v>
@@ -8060,7 +7971,7 @@
         <v>1.387</v>
       </c>
       <c r="H147">
-        <v>0.27023680000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I147">
         <v>0.40849780000000008</v>
@@ -8078,10 +7989,10 @@
         <v>1.571600000000001</v>
       </c>
       <c r="N147">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O147">
-        <v>1</v>
+        <v>2099.7299800000001</v>
       </c>
       <c r="P147">
         <f t="shared" si="2"/>
@@ -8093,7 +8004,7 @@
         <v>42565</v>
       </c>
       <c r="B148">
-        <v>0.36866399999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C148">
         <v>0.38709700000000002</v>
@@ -8111,7 +8022,7 @@
         <v>1.5309999999999999</v>
       </c>
       <c r="H148">
-        <v>0.28830620000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I148">
         <v>0.3972440000000001</v>
@@ -8129,10 +8040,10 @@
         <v>1.5418000000000021</v>
       </c>
       <c r="N148">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O148">
-        <v>1</v>
+        <v>2152.429932</v>
       </c>
       <c r="P148">
         <f t="shared" si="2"/>
@@ -8144,7 +8055,7 @@
         <v>42572</v>
       </c>
       <c r="B149">
-        <v>0.35425099999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C149">
         <v>0.37854300000000002</v>
@@ -8162,7 +8073,7 @@
         <v>1.5649999999999999</v>
       </c>
       <c r="H149">
-        <v>0.30846200000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I149">
         <v>0.39864700000000008</v>
@@ -8180,10 +8091,10 @@
         <v>1.542000000000002</v>
       </c>
       <c r="N149">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O149">
-        <v>0</v>
+        <v>2173.02</v>
       </c>
       <c r="P149">
         <f t="shared" si="2"/>
@@ -8195,7 +8106,7 @@
         <v>42579</v>
       </c>
       <c r="B150">
-        <v>0.3125</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C150">
         <v>0.40340900000000002</v>
@@ -8213,7 +8124,7 @@
         <v>1.5109999999999999</v>
       </c>
       <c r="H150">
-        <v>0.32702260000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I150">
         <v>0.39372279999999998</v>
@@ -8231,10 +8142,10 @@
         <v>1.496400000000002</v>
       </c>
       <c r="N150">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O150">
-        <v>0</v>
+        <v>2166.580078</v>
       </c>
       <c r="P150">
         <f t="shared" si="2"/>
@@ -8246,7 +8157,7 @@
         <v>42586</v>
       </c>
       <c r="B151">
-        <v>0.29787200000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C151">
         <v>0.43439699999999998</v>
@@ -8264,7 +8175,7 @@
         <v>1.5029999999999999</v>
       </c>
       <c r="H151">
-        <v>0.32877200000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I151">
         <v>0.40527059999999998</v>
@@ -8282,10 +8193,10 @@
         <v>1.499400000000001</v>
       </c>
       <c r="N151">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O151">
-        <v>1</v>
+        <v>2163.79</v>
       </c>
       <c r="P151">
         <f t="shared" si="2"/>
@@ -8297,7 +8208,7 @@
         <v>42593</v>
       </c>
       <c r="B152">
-        <v>0.31292500000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C152">
         <v>0.41950100000000001</v>
@@ -8315,7 +8226,7 @@
         <v>1.573</v>
       </c>
       <c r="H152">
-        <v>0.32924240000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I152">
         <v>0.40458939999999999</v>
@@ -8333,10 +8244,10 @@
         <v>1.5366000000000011</v>
       </c>
       <c r="N152">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O152">
-        <v>1</v>
+        <v>2175.4899999999998</v>
       </c>
       <c r="P152">
         <f t="shared" si="2"/>
@@ -8348,7 +8259,7 @@
         <v>42600</v>
       </c>
       <c r="B153">
-        <v>0.35564899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C153">
         <v>0.38075300000000001</v>
@@ -8366,7 +8277,7 @@
         <v>1.536</v>
       </c>
       <c r="H153">
-        <v>0.32663940000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I153">
         <v>0.40332060000000008</v>
@@ -8384,10 +8295,10 @@
         <v>1.537600000000001</v>
       </c>
       <c r="N153">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>2182.2199999999998</v>
       </c>
       <c r="P153">
         <f t="shared" si="2"/>
@@ -8399,7 +8310,7 @@
         <v>42607</v>
       </c>
       <c r="B154">
-        <v>0.29424299999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C154">
         <v>0.40938200000000002</v>
@@ -8417,7 +8328,7 @@
         <v>1.577</v>
       </c>
       <c r="H154">
-        <v>0.31463780000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I154">
         <v>0.40948839999999997</v>
@@ -8435,10 +8346,10 @@
         <v>1.540000000000002</v>
       </c>
       <c r="N154">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O154">
-        <v>0</v>
+        <v>2175.44</v>
       </c>
       <c r="P154">
         <f t="shared" si="2"/>
@@ -8450,7 +8361,7 @@
         <v>42614</v>
       </c>
       <c r="B155">
-        <v>0.28599999999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C155">
         <v>0.3987</v>
@@ -8468,7 +8379,7 @@
         <v>1.57</v>
       </c>
       <c r="H155">
-        <v>0.30933780000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I155">
         <v>0.40854659999999998</v>
@@ -8486,10 +8397,10 @@
         <v>1.5518000000000021</v>
       </c>
       <c r="N155">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O155">
-        <v>1</v>
+        <v>2170.86</v>
       </c>
       <c r="P155">
         <f t="shared" si="2"/>
@@ -8501,7 +8412,7 @@
         <v>42621</v>
       </c>
       <c r="B156">
-        <v>0.29746800000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C156">
         <v>0.41772199999999998</v>
@@ -8519,7 +8430,7 @@
         <v>1.6160000000000001</v>
       </c>
       <c r="H156">
-        <v>0.30925700000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I156">
         <v>0.40521160000000001</v>
@@ -8537,10 +8448,10 @@
         <v>1.574400000000002</v>
       </c>
       <c r="N156">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>2186.1599120000001</v>
       </c>
       <c r="P156">
         <f t="shared" si="2"/>
@@ -8552,7 +8463,7 @@
         <v>42628</v>
       </c>
       <c r="B157">
-        <v>0.27937899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C157">
         <v>0.36141899999999999</v>
@@ -8570,7 +8481,7 @@
         <v>1.7030000000000001</v>
       </c>
       <c r="H157">
-        <v>0.30254780000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I157">
         <v>0.39359519999999998</v>
@@ -8588,10 +8499,10 @@
         <v>1.600400000000002</v>
       </c>
       <c r="N157">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O157">
-        <v>1</v>
+        <v>2125.7700199999999</v>
       </c>
       <c r="P157">
         <f t="shared" si="2"/>
@@ -8603,7 +8514,7 @@
         <v>42635</v>
       </c>
       <c r="B158">
-        <v>0.24826000000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C158">
         <v>0.36891000000000002</v>
@@ -8621,7 +8532,7 @@
         <v>1.6319999999999999</v>
       </c>
       <c r="H158">
-        <v>0.28107000000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I158">
         <v>0.39122660000000009</v>
@@ -8639,10 +8550,10 @@
         <v>1.619600000000001</v>
       </c>
       <c r="N158">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O158">
-        <v>1</v>
+        <v>2163.1201169999999</v>
       </c>
       <c r="P158">
         <f t="shared" si="2"/>
@@ -8654,7 +8565,7 @@
         <v>42642</v>
       </c>
       <c r="B159">
-        <v>0.24</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C159">
         <v>0.38888899999999998</v>
@@ -8672,7 +8583,7 @@
         <v>1.5569999999999999</v>
       </c>
       <c r="H159">
-        <v>0.27022140000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I159">
         <v>0.38712800000000003</v>
@@ -8690,10 +8601,10 @@
         <v>1.6156000000000019</v>
       </c>
       <c r="N159">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O159">
-        <v>0</v>
+        <v>2171.3701169999999</v>
       </c>
       <c r="P159">
         <f t="shared" si="2"/>
@@ -8705,7 +8616,7 @@
         <v>42649</v>
       </c>
       <c r="B160">
-        <v>0.28794599999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C160">
         <v>0.43303599999999998</v>
@@ -8723,7 +8634,7 @@
         <v>1.742</v>
       </c>
       <c r="H160">
-        <v>0.27061060000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I160">
         <v>0.39399519999999999</v>
@@ -8741,10 +8652,10 @@
         <v>1.650000000000001</v>
       </c>
       <c r="N160">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O160">
-        <v>0</v>
+        <v>2159.7299800000001</v>
       </c>
       <c r="P160">
         <f t="shared" si="2"/>
@@ -8756,7 +8667,7 @@
         <v>42656</v>
       </c>
       <c r="B161">
-        <v>0.25471700000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C161">
         <v>0.40801900000000002</v>
@@ -8774,7 +8685,7 @@
         <v>1.738</v>
       </c>
       <c r="H161">
-        <v>0.26206040000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I161">
         <v>0.39205460000000009</v>
@@ -8792,10 +8703,10 @@
         <v>1.674400000000001</v>
       </c>
       <c r="N161">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O161">
-        <v>1</v>
+        <v>2139.179932</v>
       </c>
       <c r="P161">
         <f t="shared" si="2"/>
@@ -8807,7 +8718,7 @@
         <v>42663</v>
       </c>
       <c r="B162">
-        <v>0.23739499999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C162">
         <v>0.38445400000000002</v>
@@ -8825,7 +8736,7 @@
         <v>1.7470000000000001</v>
       </c>
       <c r="H162">
-        <v>0.25366360000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I162">
         <v>0.39666160000000011</v>
@@ -8843,10 +8754,10 @@
         <v>1.683200000000002</v>
       </c>
       <c r="N162">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O162">
-        <v>0</v>
+        <v>2144.290039</v>
       </c>
       <c r="P162">
         <f t="shared" si="2"/>
@@ -8858,7 +8769,7 @@
         <v>42670</v>
       </c>
       <c r="B163">
-        <v>0.24754899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C163">
         <v>0.41176499999999988</v>
@@ -8876,7 +8787,7 @@
         <v>1.843</v>
       </c>
       <c r="H163">
-        <v>0.25352140000000017</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I163">
         <v>0.4052326</v>
@@ -8894,10 +8805,10 @@
         <v>1.725400000000002</v>
       </c>
       <c r="N163">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O163">
-        <v>0</v>
+        <v>2139.429932</v>
       </c>
       <c r="P163">
         <f t="shared" si="2"/>
@@ -8909,7 +8820,7 @@
         <v>42677</v>
       </c>
       <c r="B164">
-        <v>0.23636399999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C164">
         <v>0.42045500000000002</v>
@@ -8927,7 +8838,7 @@
         <v>1.8120000000000001</v>
       </c>
       <c r="H164">
-        <v>0.25279420000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I164">
         <v>0.41154580000000002</v>
@@ -8945,14 +8856,14 @@
         <v>1.7764000000000011</v>
       </c>
       <c r="N164">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O164">
-        <v>1</v>
+        <v>2097.94</v>
       </c>
       <c r="P164">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -8960,7 +8871,7 @@
         <v>42684</v>
       </c>
       <c r="B165">
-        <v>0.38888899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C165">
         <v>0.317778</v>
@@ -8978,7 +8889,7 @@
         <v>2.117</v>
       </c>
       <c r="H165">
-        <v>0.27298280000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I165">
         <v>0.38849420000000012</v>
@@ -8996,10 +8907,10 @@
         <v>1.851400000000001</v>
       </c>
       <c r="N165">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O165">
-        <v>1</v>
+        <v>2163.2600000000002</v>
       </c>
       <c r="P165">
         <f t="shared" si="2"/>
@@ -9011,7 +8922,7 @@
         <v>42691</v>
       </c>
       <c r="B166">
-        <v>0.46653099999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C166">
         <v>0.26774799999999999</v>
@@ -9029,7 +8940,7 @@
         <v>2.2759999999999998</v>
       </c>
       <c r="H166">
-        <v>0.31534560000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I166">
         <v>0.36044000000000009</v>
@@ -9047,10 +8958,10 @@
         <v>1.959000000000001</v>
       </c>
       <c r="N166">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O166">
-        <v>1</v>
+        <v>2164.1999999999998</v>
       </c>
       <c r="P166">
         <f t="shared" si="2"/>
@@ -9062,7 +8973,7 @@
         <v>42705</v>
       </c>
       <c r="B167">
-        <v>0.437751</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C167">
         <v>0.31124499999999999</v>
@@ -9080,7 +8991,7 @@
         <v>2.4409999999999998</v>
       </c>
       <c r="H167">
-        <v>0.35541680000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I167">
         <v>0.34579820000000011</v>
@@ -9098,10 +9009,10 @@
         <v>2.0978000000000012</v>
       </c>
       <c r="N167">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O167">
-        <v>1</v>
+        <v>2198.81</v>
       </c>
       <c r="P167">
         <f t="shared" si="2"/>
@@ -9113,7 +9024,7 @@
         <v>42712</v>
       </c>
       <c r="B168">
-        <v>0.43121100000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C168">
         <v>0.30390099999999998</v>
@@ -9131,7 +9042,7 @@
         <v>2.387</v>
       </c>
       <c r="H168">
-        <v>0.39214920000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I168">
         <v>0.32422540000000011</v>
@@ -9149,10 +9060,10 @@
         <v>2.2066000000000008</v>
       </c>
       <c r="N168">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O168">
-        <v>1</v>
+        <v>2241.35</v>
       </c>
       <c r="P168">
         <f t="shared" si="2"/>
@@ -9164,7 +9075,7 @@
         <v>42719</v>
       </c>
       <c r="B169">
-        <v>0.446575</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C169">
         <v>0.23013700000000001</v>
@@ -9182,7 +9093,7 @@
         <v>2.58</v>
       </c>
       <c r="H169">
-        <v>0.43419140000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I169">
         <v>0.28616180000000008</v>
@@ -9200,10 +9111,10 @@
         <v>2.3602000000000012</v>
       </c>
       <c r="N169">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O169">
-        <v>1</v>
+        <v>2253.2800000000002</v>
       </c>
       <c r="P169">
         <f t="shared" si="2"/>
@@ -9215,7 +9126,7 @@
         <v>42726</v>
       </c>
       <c r="B170">
-        <v>0.44606400000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C170">
         <v>0.26239099999999999</v>
@@ -9233,7 +9144,7 @@
         <v>2.5529999999999999</v>
       </c>
       <c r="H170">
-        <v>0.44562640000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I170">
         <v>0.27508440000000012</v>
@@ -9251,10 +9162,10 @@
         <v>2.4474000000000009</v>
       </c>
       <c r="N170">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O170">
-        <v>0</v>
+        <v>2258.66</v>
       </c>
       <c r="P170">
         <f t="shared" si="2"/>
@@ -9266,7 +9177,7 @@
         <v>42733</v>
       </c>
       <c r="B171">
-        <v>0.45569599999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C171">
         <v>0.28692000000000001</v>
@@ -9284,7 +9195,7 @@
         <v>2.4769999999999999</v>
       </c>
       <c r="H171">
-        <v>0.44345940000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I171">
         <v>0.27891880000000008</v>
@@ -9302,10 +9213,10 @@
         <v>2.4876000000000009</v>
       </c>
       <c r="N171">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O171">
-        <v>1</v>
+        <v>2249.92</v>
       </c>
       <c r="P171">
         <f t="shared" si="2"/>
@@ -9317,7 +9228,7 @@
         <v>42740</v>
       </c>
       <c r="B172">
-        <v>0.46200600000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C172">
         <v>0.28571400000000002</v>
@@ -9335,7 +9246,7 @@
         <v>2.3679999999999999</v>
       </c>
       <c r="H172">
-        <v>0.44831040000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I172">
         <v>0.27381260000000007</v>
@@ -9353,10 +9264,10 @@
         <v>2.4730000000000012</v>
       </c>
       <c r="N172">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O172">
-        <v>1</v>
+        <v>2270.75</v>
       </c>
       <c r="P172">
         <f t="shared" si="2"/>
@@ -9368,7 +9279,7 @@
         <v>42747</v>
       </c>
       <c r="B173">
-        <v>0.43636399999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C173">
         <v>0.29393900000000001</v>
@@ -9386,7 +9297,7 @@
         <v>2.3610000000000002</v>
       </c>
       <c r="H173">
-        <v>0.44934100000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I173">
         <v>0.27182020000000012</v>
@@ -9404,10 +9315,10 @@
         <v>2.4678000000000009</v>
       </c>
       <c r="N173">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O173">
-        <v>0</v>
+        <v>2275.3200000000002</v>
       </c>
       <c r="P173">
         <f t="shared" si="2"/>
@@ -9419,7 +9330,7 @@
         <v>42754</v>
       </c>
       <c r="B174">
-        <v>0.37007899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C174">
         <v>0.30314999999999998</v>
@@ -9437,7 +9348,7 @@
         <v>2.4590000000000001</v>
       </c>
       <c r="H174">
-        <v>0.43404180000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I174">
         <v>0.28642280000000009</v>
@@ -9455,10 +9366,10 @@
         <v>2.4436000000000009</v>
       </c>
       <c r="N174">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O174">
-        <v>1</v>
+        <v>2271.89</v>
       </c>
       <c r="P174">
         <f t="shared" si="2"/>
@@ -9470,7 +9381,7 @@
         <v>42761</v>
       </c>
       <c r="B175">
-        <v>0.31578899999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C175">
         <v>0.34928199999999998</v>
@@ -9488,7 +9399,7 @@
         <v>2.508</v>
       </c>
       <c r="H175">
-        <v>0.40798680000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I175">
         <v>0.3038010000000001</v>
@@ -9506,10 +9417,10 @@
         <v>2.434600000000001</v>
       </c>
       <c r="N175">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O175">
-        <v>0</v>
+        <v>2298.37</v>
       </c>
       <c r="P175">
         <f t="shared" si="2"/>
@@ -9521,7 +9432,7 @@
         <v>42768</v>
       </c>
       <c r="B176">
-        <v>0.327982</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C176">
         <v>0.33027499999999999</v>
@@ -9539,7 +9450,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="H176">
-        <v>0.38244400000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I176">
         <v>0.31247200000000008</v>
@@ -9557,10 +9468,10 @@
         <v>2.4332000000000011</v>
       </c>
       <c r="N176">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O176">
-        <v>1</v>
+        <v>2279.5500000000002</v>
       </c>
       <c r="P176">
         <f t="shared" si="2"/>
@@ -9572,7 +9483,7 @@
         <v>42775</v>
       </c>
       <c r="B177">
-        <v>0.35802499999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C177">
         <v>0.36543199999999998</v>
@@ -9590,7 +9501,7 @@
         <v>2.395</v>
       </c>
       <c r="H177">
-        <v>0.36164780000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I177">
         <v>0.32841560000000009</v>
@@ -9608,10 +9519,10 @@
         <v>2.438600000000001</v>
       </c>
       <c r="N177">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O177">
-        <v>1</v>
+        <v>2294.67</v>
       </c>
       <c r="P177">
         <f t="shared" si="2"/>
@@ -9623,7 +9534,7 @@
         <v>42782</v>
       </c>
       <c r="B178">
-        <v>0.33090900000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C178">
         <v>0.34545500000000001</v>
@@ -9641,7 +9552,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="H178">
-        <v>0.34055680000000033</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I178">
         <v>0.33871880000000021</v>
@@ -9659,10 +9570,10 @@
         <v>2.4564000000000008</v>
       </c>
       <c r="N178">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O178">
-        <v>1</v>
+        <v>2347.2199999999998</v>
       </c>
       <c r="P178">
         <f t="shared" si="2"/>
@@ -9674,7 +9585,7 @@
         <v>42789</v>
       </c>
       <c r="B179">
-        <v>0.38461499999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C179">
         <v>0.29230800000000001</v>
@@ -9692,7 +9603,7 @@
         <v>2.3879999999999999</v>
       </c>
       <c r="H179">
-        <v>0.34346400000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I179">
         <v>0.33655040000000008</v>
@@ -9710,10 +9621,10 @@
         <v>2.442200000000001</v>
       </c>
       <c r="N179">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O179">
-        <v>1</v>
+        <v>2362.8200000000002</v>
       </c>
       <c r="P179">
         <f t="shared" si="2"/>
@@ -9725,7 +9636,7 @@
         <v>42796</v>
       </c>
       <c r="B180">
-        <v>0.37908500000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C180">
         <v>0.264706</v>
@@ -9743,7 +9654,7 @@
         <v>2.4889999999999999</v>
       </c>
       <c r="H180">
-        <v>0.3561232000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I180">
         <v>0.31963520000000012</v>
@@ -9761,10 +9672,10 @@
         <v>2.438400000000001</v>
       </c>
       <c r="N180">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O180">
-        <v>0</v>
+        <v>2395.96</v>
       </c>
       <c r="P180">
         <f t="shared" si="2"/>
@@ -9776,7 +9687,7 @@
         <v>42803</v>
       </c>
       <c r="B181">
-        <v>0.3</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C181">
         <v>0.23499999999999999</v>
@@ -9794,7 +9705,7 @@
         <v>2.5979999999999999</v>
       </c>
       <c r="H181">
-        <v>0.35052680000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I181">
         <v>0.30058020000000008</v>
@@ -9812,10 +9723,10 @@
         <v>2.4640000000000009</v>
       </c>
       <c r="N181">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O181">
-        <v>1</v>
+        <v>2362.98</v>
       </c>
       <c r="P181">
         <f t="shared" si="2"/>
@@ -9827,7 +9738,7 @@
         <v>42810</v>
       </c>
       <c r="B182">
-        <v>0.31168800000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C182">
         <v>0.30129899999999998</v>
@@ -9845,7 +9756,7 @@
         <v>2.5219999999999998</v>
       </c>
       <c r="H182">
-        <v>0.34125940000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I182">
         <v>0.28775360000000011</v>
@@ -9863,10 +9774,10 @@
         <v>2.4894000000000012</v>
       </c>
       <c r="N182">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O182">
-        <v>0</v>
+        <v>2385.2600000000002</v>
       </c>
       <c r="P182">
         <f t="shared" si="2"/>
@@ -9878,7 +9789,7 @@
         <v>42817</v>
       </c>
       <c r="B183">
-        <v>0.35278500000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C183">
         <v>0.34217500000000001</v>
@@ -9896,7 +9807,7 @@
         <v>2.4180000000000001</v>
       </c>
       <c r="H183">
-        <v>0.34563460000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I183">
         <v>0.28709760000000012</v>
@@ -9914,10 +9825,10 @@
         <v>2.483000000000001</v>
       </c>
       <c r="N183">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O183">
-        <v>1</v>
+        <v>2348.4499999999998</v>
       </c>
       <c r="P183">
         <f t="shared" si="2"/>
@@ -9929,7 +9840,7 @@
         <v>42824</v>
       </c>
       <c r="B184">
-        <v>0.30218099999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C184">
         <v>0.323988</v>
@@ -9947,7 +9858,7 @@
         <v>2.4159999999999999</v>
       </c>
       <c r="H184">
-        <v>0.32914780000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I184">
         <v>0.29343360000000013</v>
@@ -9965,10 +9876,10 @@
         <v>2.4886000000000008</v>
       </c>
       <c r="N184">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O184">
-        <v>0</v>
+        <v>2361.13</v>
       </c>
       <c r="P184">
         <f t="shared" si="2"/>
@@ -9980,7 +9891,7 @@
         <v>42831</v>
       </c>
       <c r="B185">
-        <v>0.28301900000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C185">
         <v>0.32075500000000001</v>
@@ -9998,7 +9909,7 @@
         <v>2.343</v>
       </c>
       <c r="H185">
-        <v>0.30993460000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I185">
         <v>0.30464340000000012</v>
@@ -10016,10 +9927,10 @@
         <v>2.4594000000000009</v>
       </c>
       <c r="N185">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O185">
-        <v>0</v>
+        <v>2352.9499999999998</v>
       </c>
       <c r="P185">
         <f t="shared" si="2"/>
@@ -10031,7 +9942,7 @@
         <v>42838</v>
       </c>
       <c r="B186">
-        <v>0.28971999999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C186">
         <v>0.336449</v>
@@ -10049,7 +9960,7 @@
         <v>2.2320000000000002</v>
       </c>
       <c r="H186">
-        <v>0.30787860000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I186">
         <v>0.32493320000000009</v>
@@ -10067,10 +9978,10 @@
         <v>2.386200000000001</v>
       </c>
       <c r="N186">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O186">
-        <v>0</v>
+        <v>2344.9299999999998</v>
       </c>
       <c r="P186">
         <f t="shared" si="2"/>
@@ -10082,7 +9993,7 @@
         <v>42845</v>
       </c>
       <c r="B187">
-        <v>0.25706200000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C187">
         <v>0.35593200000000003</v>
@@ -10100,7 +10011,7 @@
         <v>2.2410000000000001</v>
       </c>
       <c r="H187">
-        <v>0.29695340000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I187">
         <v>0.33585980000000021</v>
@@ -10118,10 +10029,10 @@
         <v>2.330000000000001</v>
       </c>
       <c r="N187">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O187">
-        <v>1</v>
+        <v>2338.17</v>
       </c>
       <c r="P187">
         <f t="shared" si="2"/>
@@ -10133,7 +10044,7 @@
         <v>42852</v>
       </c>
       <c r="B188">
-        <v>0.38048799999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C188">
         <v>0.30243900000000001</v>
@@ -10151,7 +10062,7 @@
         <v>2.2959999999999998</v>
       </c>
       <c r="H188">
-        <v>0.30249400000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I188">
         <v>0.32791260000000022</v>
@@ -10169,10 +10080,10 @@
         <v>2.305600000000001</v>
       </c>
       <c r="N188">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O188">
-        <v>1</v>
+        <v>2387.4499999999998</v>
       </c>
       <c r="P188">
         <f t="shared" si="2"/>
@@ -10184,7 +10095,7 @@
         <v>42859</v>
       </c>
       <c r="B189">
-        <v>0.38071100000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C189">
         <v>0.319797</v>
@@ -10202,7 +10113,7 @@
         <v>2.3559999999999999</v>
       </c>
       <c r="H189">
-        <v>0.31820000000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I189">
         <v>0.32707440000000021</v>
@@ -10220,10 +10131,10 @@
         <v>2.293600000000001</v>
       </c>
       <c r="N189">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O189">
-        <v>1</v>
+        <v>2388.13</v>
       </c>
       <c r="P189">
         <f t="shared" si="2"/>
@@ -10235,7 +10146,7 @@
         <v>42866</v>
       </c>
       <c r="B190">
-        <v>0.32733800000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C190">
         <v>0.370504</v>
@@ -10253,7 +10164,7 @@
         <v>2.4</v>
       </c>
       <c r="H190">
-        <v>0.32706380000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I190">
         <v>0.33702420000000011</v>
@@ -10271,10 +10182,10 @@
         <v>2.305000000000001</v>
       </c>
       <c r="N190">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O190">
-        <v>0</v>
+        <v>2399.63</v>
       </c>
       <c r="P190">
         <f t="shared" si="2"/>
@@ -10286,7 +10197,7 @@
         <v>42873</v>
       </c>
       <c r="B191">
-        <v>0.23853199999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C191">
         <v>0.41896000000000011</v>
@@ -10304,7 +10215,7 @@
         <v>2.2330000000000001</v>
       </c>
       <c r="H191">
-        <v>0.31682620000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I191">
         <v>0.35352640000000007</v>
@@ -10322,10 +10233,10 @@
         <v>2.305200000000001</v>
       </c>
       <c r="N191">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O191">
-        <v>1</v>
+        <v>2357.0300000000002</v>
       </c>
       <c r="P191">
         <f t="shared" si="2"/>
@@ -10337,7 +10248,7 @@
         <v>42880</v>
       </c>
       <c r="B192">
-        <v>0.328571</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C192">
         <v>0.37142900000000001</v>
@@ -10355,7 +10266,7 @@
         <v>2.2549999999999999</v>
       </c>
       <c r="H192">
-        <v>0.33112800000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I192">
         <v>0.3566258000000001</v>
@@ -10373,10 +10284,10 @@
         <v>2.3080000000000012</v>
       </c>
       <c r="N192">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O192">
-        <v>1</v>
+        <v>2404.39</v>
       </c>
       <c r="P192">
         <f t="shared" si="2"/>
@@ -10388,7 +10299,7 @@
         <v>42887</v>
       </c>
       <c r="B193">
-        <v>0.269231</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C193">
         <v>0.41538500000000012</v>
@@ -10406,7 +10317,7 @@
         <v>2.2170000000000001</v>
       </c>
       <c r="H193">
-        <v>0.30887660000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I193">
         <v>0.37921500000000008</v>
@@ -10424,10 +10335,10 @@
         <v>2.292200000000002</v>
       </c>
       <c r="N193">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O193">
-        <v>1</v>
+        <v>2411.8000000000002</v>
       </c>
       <c r="P193">
         <f t="shared" si="2"/>
@@ -10439,7 +10350,7 @@
         <v>42894</v>
       </c>
       <c r="B194">
-        <v>0.35433100000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C194">
         <v>0.35039399999999998</v>
@@ -10457,7 +10368,7 @@
         <v>2.194</v>
       </c>
       <c r="H194">
-        <v>0.30360060000000028</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I194">
         <v>0.38533440000000019</v>
@@ -10475,10 +10386,10 @@
         <v>2.259800000000002</v>
       </c>
       <c r="N194">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O194">
-        <v>1</v>
+        <v>2433.14</v>
       </c>
       <c r="P194">
         <f t="shared" si="2"/>
@@ -10490,7 +10401,7 @@
         <v>42901</v>
       </c>
       <c r="B195">
-        <v>0.32270900000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C195">
         <v>0.38246999999999998</v>
@@ -10508,7 +10419,7 @@
         <v>2.1619999999999999</v>
       </c>
       <c r="H195">
-        <v>0.30267480000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I195">
         <v>0.38772760000000023</v>
@@ -10526,13 +10437,13 @@
         <v>2.2122000000000019</v>
       </c>
       <c r="N195">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O195">
-        <v>0</v>
+        <v>2437.92</v>
       </c>
       <c r="P195">
-        <f t="shared" ref="P195:P251" si="3">IF(1.17387091 * B195 + -1.28896617 * C195 + 0.113146579 * D195 + 1.06072433 * E195 + -0.0000195666063 * F195 + 0.747401113 * G195 + -0.0932243309 * H195 + -1.01756564 * I195 + 1.10965424 * J195 + -1.20287857 * K195 + 0.0232989827 * L195 + -0.843499847 * M195 + 0.16662908 &gt; 0, 1, 0)</f>
+        <f t="shared" ref="P195:P251" si="3">IF(-2.46914834676694 * B195+-1.8682208654342 * C195+0.186391377028163 * D195+1.49437631083417 * E195+-0.0363931120658708 * F195+0.217829273707781 * G195+-0.708794130176448 * H195+-0.666237113966236 * I195+1.19636185029295 * J195+-1.72750210891747 * K195+0.0550959718293999 * L195+-0.278500795201216 * M195+1.78551882735402 &gt; 0, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10541,7 +10452,7 @@
         <v>42908</v>
       </c>
       <c r="B196">
-        <v>0.32653100000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C196">
         <v>0.38435399999999997</v>
@@ -10559,7 +10470,7 @@
         <v>2.153</v>
       </c>
       <c r="H196">
-        <v>0.32027460000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I196">
         <v>0.38080640000000021</v>
@@ -10577,10 +10488,10 @@
         <v>2.1962000000000019</v>
       </c>
       <c r="N196">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O196">
-        <v>1</v>
+        <v>2435.61</v>
       </c>
       <c r="P196">
         <f t="shared" si="3"/>
@@ -10592,7 +10503,7 @@
         <v>42915</v>
       </c>
       <c r="B197">
-        <v>0.29714299999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C197">
         <v>0.43428599999999989</v>
@@ -10610,7 +10521,7 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="H197">
-        <v>0.31398900000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I197">
         <v>0.39337780000000022</v>
@@ -10628,10 +10539,10 @@
         <v>2.1986000000000021</v>
       </c>
       <c r="N197">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O197">
-        <v>0</v>
+        <v>2440.69</v>
       </c>
       <c r="P197">
         <f t="shared" si="3"/>
@@ -10643,7 +10554,7 @@
         <v>42922</v>
       </c>
       <c r="B198">
-        <v>0.29577500000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C198">
         <v>0.40563399999999999</v>
@@ -10661,7 +10572,7 @@
         <v>2.37</v>
       </c>
       <c r="H198">
-        <v>0.3192978000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I198">
         <v>0.39142760000000021</v>
@@ -10679,14 +10590,14 @@
         <v>2.2292000000000018</v>
       </c>
       <c r="N198">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O198">
-        <v>1</v>
+        <v>2432.54</v>
       </c>
       <c r="P198">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -10694,7 +10605,7 @@
         <v>42929</v>
       </c>
       <c r="B199">
-        <v>0.28240700000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C199">
         <v>0.421296</v>
@@ -10712,7 +10623,7 @@
         <v>2.3479999999999999</v>
       </c>
       <c r="H199">
-        <v>0.30491300000000032</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I199">
         <v>0.40560800000000008</v>
@@ -10730,10 +10641,10 @@
         <v>2.260000000000002</v>
       </c>
       <c r="N199">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O199">
-        <v>1</v>
+        <v>2443.25</v>
       </c>
       <c r="P199">
         <f t="shared" si="3"/>
@@ -10745,7 +10656,7 @@
         <v>42936</v>
       </c>
       <c r="B200">
-        <v>0.35483900000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C200">
         <v>0.38709700000000002</v>
@@ -10763,7 +10674,7 @@
         <v>2.266</v>
       </c>
       <c r="H200">
-        <v>0.31133900000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I200">
         <v>0.4065334000000001</v>
@@ -10781,10 +10692,10 @@
         <v>2.2808000000000019</v>
       </c>
       <c r="N200">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O200">
-        <v>1</v>
+        <v>2473.83</v>
       </c>
       <c r="P200">
         <f t="shared" si="3"/>
@@ -10796,7 +10707,7 @@
         <v>42943</v>
       </c>
       <c r="B201">
-        <v>0.34459499999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C201">
         <v>0.41216199999999997</v>
@@ -10814,7 +10725,7 @@
         <v>2.31</v>
       </c>
       <c r="H201">
-        <v>0.31495180000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I201">
         <v>0.41209499999999999</v>
@@ -10832,10 +10743,10 @@
         <v>2.312200000000002</v>
       </c>
       <c r="N201">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O201">
-        <v>0</v>
+        <v>2477.83</v>
       </c>
       <c r="P201">
         <f t="shared" si="3"/>
@@ -10847,7 +10758,7 @@
         <v>42950</v>
       </c>
       <c r="B202">
-        <v>0.36111100000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C202">
         <v>0.31790099999999999</v>
@@ -10865,7 +10776,7 @@
         <v>2.2280000000000002</v>
       </c>
       <c r="H202">
-        <v>0.32774540000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I202">
         <v>0.38881800000000011</v>
@@ -10883,10 +10794,10 @@
         <v>2.304400000000002</v>
       </c>
       <c r="N202">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O202">
-        <v>0</v>
+        <v>2477.5700000000002</v>
       </c>
       <c r="P202">
         <f t="shared" si="3"/>
@@ -10898,7 +10809,7 @@
         <v>42957</v>
       </c>
       <c r="B203">
-        <v>0.33666699999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C203">
         <v>0.34</v>
@@ -10916,7 +10827,7 @@
         <v>2.2120000000000002</v>
       </c>
       <c r="H203">
-        <v>0.33592380000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I203">
         <v>0.37569120000000011</v>
@@ -10934,14 +10845,14 @@
         <v>2.2728000000000019</v>
       </c>
       <c r="N203">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O203">
-        <v>0</v>
+        <v>2474.02</v>
       </c>
       <c r="P203">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -10949,7 +10860,7 @@
         <v>42964</v>
       </c>
       <c r="B204">
-        <v>0.34174300000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C204">
         <v>0.33027499999999999</v>
@@ -10967,7 +10878,7 @@
         <v>2.1989999999999998</v>
       </c>
       <c r="H204">
-        <v>0.34779100000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I204">
         <v>0.35748700000000011</v>
@@ -10985,10 +10896,10 @@
         <v>2.2430000000000021</v>
       </c>
       <c r="N204">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O204">
-        <v>0</v>
+        <v>2468.11</v>
       </c>
       <c r="P204">
         <f t="shared" si="3"/>
@@ -11000,7 +10911,7 @@
         <v>42971</v>
       </c>
       <c r="B205">
-        <v>0.28099200000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C205">
         <v>0.336088</v>
@@ -11018,7 +10929,7 @@
         <v>2.194</v>
       </c>
       <c r="H205">
-        <v>0.33302160000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I205">
         <v>0.34728520000000013</v>
@@ -11036,10 +10947,10 @@
         <v>2.2286000000000019</v>
       </c>
       <c r="N205">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O205">
-        <v>1</v>
+        <v>2444.04</v>
       </c>
       <c r="P205">
         <f t="shared" si="3"/>
@@ -11051,7 +10962,7 @@
         <v>42978</v>
       </c>
       <c r="B206">
-        <v>0.25</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C206">
         <v>0.35106399999999999</v>
@@ -11069,7 +10980,7 @@
         <v>2.121</v>
       </c>
       <c r="H206">
-        <v>0.31410260000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I206">
         <v>0.33506560000000007</v>
@@ -11087,14 +10998,14 @@
         <v>2.1908000000000021</v>
       </c>
       <c r="N206">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O206">
-        <v>1</v>
+        <v>2457.59</v>
       </c>
       <c r="P206">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11102,7 +11013,7 @@
         <v>42985</v>
       </c>
       <c r="B207">
-        <v>0.29277599999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C207">
         <v>0.34981000000000001</v>
@@ -11120,7 +11031,7 @@
         <v>2.0609999999999999</v>
       </c>
       <c r="H207">
-        <v>0.30043560000000019</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I207">
         <v>0.34144740000000012</v>
@@ -11138,10 +11049,10 @@
         <v>2.1574000000000022</v>
       </c>
       <c r="N207">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O207">
-        <v>1</v>
+        <v>2465.54</v>
       </c>
       <c r="P207">
         <f t="shared" si="3"/>
@@ -11153,7 +11064,7 @@
         <v>42992</v>
       </c>
       <c r="B208">
-        <v>0.412879</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C208">
         <v>0.36742399999999997</v>
@@ -11171,7 +11082,7 @@
         <v>2.1970000000000001</v>
       </c>
       <c r="H208">
-        <v>0.31567800000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I208">
         <v>0.34693220000000008</v>
@@ -11189,10 +11100,10 @@
         <v>2.1544000000000021</v>
       </c>
       <c r="N208">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O208">
-        <v>1</v>
+        <v>2498.37</v>
       </c>
       <c r="P208">
         <f t="shared" si="3"/>
@@ -11204,7 +11115,7 @@
         <v>42999</v>
       </c>
       <c r="B209">
-        <v>0.40136100000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C209">
         <v>0.32653100000000002</v>
@@ -11222,7 +11133,7 @@
         <v>2.278</v>
       </c>
       <c r="H209">
-        <v>0.32760160000000033</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I209">
         <v>0.34618340000000009</v>
@@ -11240,10 +11151,10 @@
         <v>2.1702000000000021</v>
       </c>
       <c r="N209">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O209">
-        <v>0</v>
+        <v>2508.2399999999998</v>
       </c>
       <c r="P209">
         <f t="shared" si="3"/>
@@ -11255,7 +11166,7 @@
         <v>43006</v>
       </c>
       <c r="B210">
-        <v>0.33333299999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C210">
         <v>0.37930999999999998</v>
@@ -11273,7 +11184,7 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="H210">
-        <v>0.33806980000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I210">
         <v>0.35482780000000008</v>
@@ -11291,10 +11202,10 @@
         <v>2.1932000000000018</v>
       </c>
       <c r="N210">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O210">
-        <v>1</v>
+        <v>2507.04</v>
       </c>
       <c r="P210">
         <f t="shared" si="3"/>
@@ -11306,7 +11217,7 @@
         <v>43013</v>
       </c>
       <c r="B211">
-        <v>0.35599999999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C211">
         <v>0.316</v>
@@ -11324,7 +11235,7 @@
         <v>2.35</v>
       </c>
       <c r="H211">
-        <v>0.35926980000000031</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I211">
         <v>0.3478150000000001</v>
@@ -11342,10 +11253,10 @@
         <v>2.2390000000000021</v>
       </c>
       <c r="N211">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O211">
-        <v>1</v>
+        <v>2537.7399999999998</v>
       </c>
       <c r="P211">
         <f t="shared" si="3"/>
@@ -11357,7 +11268,7 @@
         <v>43020</v>
       </c>
       <c r="B212">
-        <v>0.39766099999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C212">
         <v>0.33333299999999999</v>
@@ -11375,7 +11286,7 @@
         <v>2.323</v>
       </c>
       <c r="H212">
-        <v>0.38024680000000027</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I212">
         <v>0.34451960000000009</v>
@@ -11393,10 +11304,10 @@
         <v>2.2914000000000021</v>
       </c>
       <c r="N212">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O212">
-        <v>1</v>
+        <v>2555.2399999999998</v>
       </c>
       <c r="P212">
         <f t="shared" si="3"/>
@@ -11408,7 +11319,7 @@
         <v>43027</v>
       </c>
       <c r="B213">
-        <v>0.37930999999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C213">
         <v>0.34137899999999999</v>
@@ -11426,7 +11337,7 @@
         <v>2.3210000000000002</v>
       </c>
       <c r="H213">
-        <v>0.37353300000000023</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I213">
         <v>0.33931060000000018</v>
@@ -11444,10 +11355,10 @@
         <v>2.316200000000002</v>
       </c>
       <c r="N213">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O213">
-        <v>0</v>
+        <v>2561.2600000000002</v>
       </c>
       <c r="P213">
         <f t="shared" si="3"/>
@@ -11459,7 +11370,7 @@
         <v>43034</v>
       </c>
       <c r="B214">
-        <v>0.39639600000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C214">
         <v>0.27327299999999999</v>
@@ -11477,7 +11388,7 @@
         <v>2.452</v>
       </c>
       <c r="H214">
-        <v>0.3725400000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I214">
         <v>0.32865900000000009</v>
@@ -11495,10 +11406,10 @@
         <v>2.3510000000000022</v>
       </c>
       <c r="N214">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O214">
-        <v>1</v>
+        <v>2557.15</v>
       </c>
       <c r="P214">
         <f t="shared" si="3"/>
@@ -11510,7 +11421,7 @@
         <v>43041</v>
       </c>
       <c r="B215">
-        <v>0.45054899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C215">
         <v>0.26373600000000003</v>
@@ -11528,7 +11439,7 @@
         <v>2.347</v>
       </c>
       <c r="H215">
-        <v>0.3959832000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I215">
         <v>0.3055442000000001</v>
@@ -11546,10 +11457,10 @@
         <v>2.3586000000000018</v>
       </c>
       <c r="N215">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O215">
-        <v>1</v>
+        <v>2579.36</v>
       </c>
       <c r="P215">
         <f t="shared" si="3"/>
@@ -11561,7 +11472,7 @@
         <v>43048</v>
       </c>
       <c r="B216">
-        <v>0.45104899999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C216">
         <v>0.31818200000000002</v>
@@ -11579,7 +11490,7 @@
         <v>2.331</v>
       </c>
       <c r="H216">
-        <v>0.41499300000000022</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I216">
         <v>0.3059806000000001</v>
@@ -11597,10 +11508,10 @@
         <v>2.3548000000000018</v>
       </c>
       <c r="N216">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O216">
-        <v>0</v>
+        <v>2594.38</v>
       </c>
       <c r="P216">
         <f t="shared" si="3"/>
@@ -11612,7 +11523,7 @@
         <v>43055</v>
       </c>
       <c r="B217">
-        <v>0.29347800000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C217">
         <v>0.354348</v>
@@ -11630,7 +11541,7 @@
         <v>2.3610000000000002</v>
       </c>
       <c r="H217">
-        <v>0.39415640000000018</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I217">
         <v>0.31018360000000011</v>
@@ -11648,10 +11559,10 @@
         <v>2.3624000000000018</v>
       </c>
       <c r="N217">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O217">
-        <v>1</v>
+        <v>2564.62</v>
       </c>
       <c r="P217">
         <f t="shared" si="3"/>
@@ -11663,7 +11574,7 @@
         <v>43069</v>
       </c>
       <c r="B218">
-        <v>0.35945899999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C218">
         <v>0.324324</v>
@@ -11681,7 +11592,7 @@
         <v>2.4169999999999998</v>
       </c>
       <c r="H218">
-        <v>0.39018620000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I218">
         <v>0.30677260000000012</v>
@@ -11699,10 +11610,10 @@
         <v>2.381600000000001</v>
       </c>
       <c r="N218">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O218">
-        <v>1</v>
+        <v>2626.07</v>
       </c>
       <c r="P218">
         <f t="shared" si="3"/>
@@ -11714,7 +11625,7 @@
         <v>43076</v>
       </c>
       <c r="B219">
-        <v>0.36877100000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C219">
         <v>0.28903699999999999</v>
@@ -11732,7 +11643,7 @@
         <v>2.3759999999999999</v>
       </c>
       <c r="H219">
-        <v>0.38466120000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I219">
         <v>0.30992540000000002</v>
@@ -11750,10 +11661,10 @@
         <v>2.3664000000000009</v>
       </c>
       <c r="N219">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O219">
-        <v>1</v>
+        <v>2629.27</v>
       </c>
       <c r="P219">
         <f t="shared" si="3"/>
@@ -11765,7 +11676,7 @@
         <v>43083</v>
       </c>
       <c r="B220">
-        <v>0.45</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C220">
         <v>0.26874999999999999</v>
@@ -11783,7 +11694,7 @@
         <v>2.3460000000000001</v>
       </c>
       <c r="H220">
-        <v>0.38455140000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I220">
         <v>0.31092819999999999</v>
@@ -11801,10 +11712,10 @@
         <v>2.3662000000000019</v>
       </c>
       <c r="N220">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O220">
-        <v>1</v>
+        <v>2662.85</v>
       </c>
       <c r="P220">
         <f t="shared" si="3"/>
@@ -11816,7 +11727,7 @@
         <v>43090</v>
       </c>
       <c r="B221">
-        <v>0.50497499999999995</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C221">
         <v>0.23880599999999999</v>
@@ -11834,7 +11745,7 @@
         <v>2.4809999999999999</v>
       </c>
       <c r="H221">
-        <v>0.39533660000000009</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I221">
         <v>0.29505300000000012</v>
@@ -11852,10 +11763,10 @@
         <v>2.3962000000000021</v>
       </c>
       <c r="N221">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O221">
-        <v>1</v>
+        <v>2679.25</v>
       </c>
       <c r="P221">
         <f t="shared" si="3"/>
@@ -11867,7 +11778,7 @@
         <v>43097</v>
       </c>
       <c r="B222">
-        <v>0.52645500000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C222">
         <v>0.26719599999999999</v>
@@ -11885,7 +11796,7 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="H222">
-        <v>0.44193200000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I222">
         <v>0.27762260000000011</v>
@@ -11903,10 +11814,10 @@
         <v>2.4104000000000019</v>
       </c>
       <c r="N222">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O222">
-        <v>1</v>
+        <v>2682.62</v>
       </c>
       <c r="P222">
         <f t="shared" si="3"/>
@@ -11918,7 +11829,7 @@
         <v>43104</v>
       </c>
       <c r="B223">
-        <v>0.59753100000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C223">
         <v>0.24691399999999999</v>
@@ -11936,7 +11847,7 @@
         <v>2.4529999999999998</v>
       </c>
       <c r="H223">
-        <v>0.48954640000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I223">
         <v>0.26214060000000011</v>
@@ -11954,10 +11865,10 @@
         <v>2.417600000000002</v>
       </c>
       <c r="N223">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O223">
-        <v>1</v>
+        <v>2713.06</v>
       </c>
       <c r="P223">
         <f t="shared" si="3"/>
@@ -11969,7 +11880,7 @@
         <v>43111</v>
       </c>
       <c r="B224">
-        <v>0.48672599999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C224">
         <v>0.26253700000000002</v>
@@ -11987,7 +11898,7 @@
         <v>2.5310000000000001</v>
       </c>
       <c r="H224">
-        <v>0.51313740000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I224">
         <v>0.25684059999999997</v>
@@ -12005,10 +11916,10 @@
         <v>2.4486000000000021</v>
       </c>
       <c r="N224">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O224">
-        <v>1</v>
+        <v>2748.23</v>
       </c>
       <c r="P224">
         <f t="shared" si="3"/>
@@ -12020,7 +11931,7 @@
         <v>43118</v>
       </c>
       <c r="B225">
-        <v>0.54113299999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C225">
         <v>0.244973</v>
@@ -12038,7 +11949,7 @@
         <v>2.6110000000000002</v>
       </c>
       <c r="H225">
-        <v>0.53136400000000006</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I225">
         <v>0.25208520000000001</v>
@@ -12056,10 +11967,10 @@
         <v>2.501600000000002</v>
       </c>
       <c r="N225">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O225">
-        <v>1</v>
+        <v>2802.56</v>
       </c>
       <c r="P225">
         <f t="shared" si="3"/>
@@ -12071,7 +11982,7 @@
         <v>43125</v>
       </c>
       <c r="B226">
-        <v>0.45454499999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C226">
         <v>0.30519499999999999</v>
@@ -12089,7 +12000,7 @@
         <v>2.621</v>
       </c>
       <c r="H226">
-        <v>0.52127800000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I226">
         <v>0.26536300000000002</v>
@@ -12107,14 +12018,14 @@
         <v>2.529600000000003</v>
       </c>
       <c r="N226">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O226">
-        <v>0</v>
+        <v>2837.54</v>
       </c>
       <c r="P226">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12122,7 +12033,7 @@
         <v>43132</v>
       </c>
       <c r="B227">
-        <v>0.447712</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C227">
         <v>0.264706</v>
@@ -12140,7 +12051,7 @@
         <v>2.7730000000000001</v>
       </c>
       <c r="H227">
-        <v>0.50552940000000013</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I227">
         <v>0.26486500000000002</v>
@@ -12158,14 +12069,14 @@
         <v>2.5978000000000021</v>
       </c>
       <c r="N227">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O227">
-        <v>0</v>
+        <v>2823.81</v>
       </c>
       <c r="P227">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12173,7 +12084,7 @@
         <v>43139</v>
       </c>
       <c r="B228">
-        <v>0.37027700000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C228">
         <v>0.27959699999999998</v>
@@ -12191,7 +12102,7 @@
         <v>2.851</v>
       </c>
       <c r="H228">
-        <v>0.46007860000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I228">
         <v>0.27140160000000002</v>
@@ -12209,14 +12120,14 @@
         <v>2.6774000000000018</v>
       </c>
       <c r="N228">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O228">
-        <v>1</v>
+        <v>2681.66</v>
       </c>
       <c r="P228">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12224,7 +12135,7 @@
         <v>43146</v>
       </c>
       <c r="B229">
-        <v>0.48519400000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C229">
         <v>0.30068299999999998</v>
@@ -12242,7 +12153,7 @@
         <v>2.891</v>
       </c>
       <c r="H229">
-        <v>0.45977220000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I229">
         <v>0.27903080000000002</v>
@@ -12260,10 +12171,10 @@
         <v>2.7494000000000018</v>
       </c>
       <c r="N229">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O229">
-        <v>1</v>
+        <v>2698.63</v>
       </c>
       <c r="P229">
         <f t="shared" si="3"/>
@@ -12275,7 +12186,7 @@
         <v>43153</v>
       </c>
       <c r="B230">
-        <v>0.44651200000000002</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C230">
         <v>0.32558100000000001</v>
@@ -12293,7 +12204,7 @@
         <v>2.9169999999999998</v>
       </c>
       <c r="H230">
-        <v>0.44084800000000007</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I230">
         <v>0.29515240000000009</v>
@@ -12311,10 +12222,10 @@
         <v>2.8106000000000022</v>
       </c>
       <c r="N230">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O230">
-        <v>1</v>
+        <v>2701.33</v>
       </c>
       <c r="P230">
         <f t="shared" si="3"/>
@@ -12326,7 +12237,7 @@
         <v>43160</v>
       </c>
       <c r="B231">
-        <v>0.372832</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C231">
         <v>0.39306400000000002</v>
@@ -12344,7 +12255,7 @@
         <v>2.8039999999999998</v>
       </c>
       <c r="H231">
-        <v>0.42450539999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I231">
         <v>0.31272620000000012</v>
@@ -12362,10 +12273,10 @@
         <v>2.8472000000000022</v>
       </c>
       <c r="N231">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O231">
-        <v>1</v>
+        <v>2713.83</v>
       </c>
       <c r="P231">
         <f t="shared" si="3"/>
@@ -12377,7 +12288,7 @@
         <v>43167</v>
       </c>
       <c r="B232">
-        <v>0.26402599999999998</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C232">
         <v>0.45214500000000002</v>
@@ -12395,7 +12306,7 @@
         <v>2.8660000000000001</v>
       </c>
       <c r="H232">
-        <v>0.38776820000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I232">
         <v>0.35021400000000008</v>
@@ -12413,14 +12324,14 @@
         <v>2.8658000000000019</v>
       </c>
       <c r="N232">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O232">
-        <v>1</v>
+        <v>2726.8</v>
       </c>
       <c r="P232">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12428,7 +12339,7 @@
         <v>43174</v>
       </c>
       <c r="B233">
-        <v>0.368421</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C233">
         <v>0.41828300000000002</v>
@@ -12446,7 +12357,7 @@
         <v>2.8260000000000001</v>
       </c>
       <c r="H233">
-        <v>0.38739699999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I233">
         <v>0.37795120000000021</v>
@@ -12464,10 +12375,10 @@
         <v>2.860800000000002</v>
       </c>
       <c r="N233">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O233">
-        <v>0</v>
+        <v>2749.48</v>
       </c>
       <c r="P233">
         <f t="shared" si="3"/>
@@ -12479,7 +12390,7 @@
         <v>43181</v>
       </c>
       <c r="B234">
-        <v>0.33234399999999997</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C234">
         <v>0.38278899999999999</v>
@@ -12497,7 +12408,7 @@
         <v>2.8319999999999999</v>
       </c>
       <c r="H234">
-        <v>0.35682700000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I234">
         <v>0.39437240000000012</v>
@@ -12515,14 +12426,14 @@
         <v>2.849000000000002</v>
       </c>
       <c r="N234">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O234">
-        <v>0</v>
+        <v>2711.93</v>
       </c>
       <c r="P234">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -12530,7 +12441,7 @@
         <v>43188</v>
       </c>
       <c r="B235">
-        <v>0.31936100000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C235">
         <v>0.327345</v>
@@ -12548,7 +12459,7 @@
         <v>2.7410000000000001</v>
       </c>
       <c r="H235">
-        <v>0.33139680000000021</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I235">
         <v>0.39472520000000011</v>
@@ -12566,10 +12477,10 @@
         <v>2.8138000000000019</v>
       </c>
       <c r="N235">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O235">
-        <v>1</v>
+        <v>2605</v>
       </c>
       <c r="P235">
         <f t="shared" si="3"/>
@@ -12581,7 +12492,7 @@
         <v>43195</v>
       </c>
       <c r="B236">
-        <v>0.31896600000000003</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C236">
         <v>0.31465500000000002</v>
@@ -12599,7 +12510,7 @@
         <v>2.8319999999999999</v>
       </c>
       <c r="H236">
-        <v>0.32062360000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I236">
         <v>0.37904340000000009</v>
@@ -12617,10 +12528,10 @@
         <v>2.8194000000000021</v>
       </c>
       <c r="N236">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O236">
-        <v>0</v>
+        <v>2644.69</v>
       </c>
       <c r="P236">
         <f t="shared" si="3"/>
@@ -12632,7 +12543,7 @@
         <v>43202</v>
       </c>
       <c r="B237">
-        <v>0.26086999999999999</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C237">
         <v>0.31159399999999998</v>
@@ -12650,7 +12561,7 @@
         <v>2.8340000000000001</v>
       </c>
       <c r="H237">
-        <v>0.31999240000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I237">
         <v>0.35093320000000011</v>
@@ -12668,10 +12579,10 @@
         <v>2.8130000000000019</v>
       </c>
       <c r="N237">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O237">
-        <v>1</v>
+        <v>2642.19</v>
       </c>
       <c r="P237">
         <f t="shared" si="3"/>
@@ -12683,7 +12594,7 @@
         <v>43209</v>
       </c>
       <c r="B238">
-        <v>0.377834</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C238">
         <v>0.32997500000000002</v>
@@ -12701,7 +12612,7 @@
         <v>2.9140000000000001</v>
       </c>
       <c r="H238">
-        <v>0.32187500000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I238">
         <v>0.33327160000000011</v>
@@ -12719,10 +12630,10 @@
         <v>2.8306000000000031</v>
       </c>
       <c r="N238">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O238">
-        <v>0</v>
+        <v>2708.64</v>
       </c>
       <c r="P238">
         <f t="shared" si="3"/>
@@ -12734,7 +12645,7 @@
         <v>43216</v>
       </c>
       <c r="B239">
-        <v>0.369085</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C239">
         <v>0.37539400000000001</v>
@@ -12752,7 +12663,7 @@
         <v>2.99</v>
       </c>
       <c r="H239">
-        <v>0.3292232000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I239">
         <v>0.3317926000000001</v>
@@ -12770,10 +12681,10 @@
         <v>2.8622000000000032</v>
       </c>
       <c r="N239">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O239">
-        <v>0</v>
+        <v>2639.4</v>
       </c>
       <c r="P239">
         <f t="shared" si="3"/>
@@ -12785,7 +12696,7 @@
         <v>43223</v>
       </c>
       <c r="B240">
-        <v>0.28395100000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C240">
         <v>0.41358</v>
@@ -12803,7 +12714,7 @@
         <v>2.9460000000000002</v>
       </c>
       <c r="H240">
-        <v>0.32214120000000013</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I240">
         <v>0.34903960000000012</v>
@@ -12821,10 +12732,10 @@
         <v>2.9032000000000031</v>
       </c>
       <c r="N240">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O240">
-        <v>1</v>
+        <v>2635.67</v>
       </c>
       <c r="P240">
         <f t="shared" si="3"/>
@@ -12836,7 +12747,7 @@
         <v>43230</v>
       </c>
       <c r="B241">
-        <v>0.33510600000000001</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C241">
         <v>0.40957399999999999</v>
@@ -12854,7 +12765,7 @@
         <v>2.9710000000000001</v>
       </c>
       <c r="H241">
-        <v>0.32536920000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I241">
         <v>0.36802340000000011</v>
@@ -12872,10 +12783,10 @@
         <v>2.9310000000000032</v>
       </c>
       <c r="N241">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O241">
-        <v>1</v>
+        <v>2697.79</v>
       </c>
       <c r="P241">
         <f t="shared" si="3"/>
@@ -12887,7 +12798,7 @@
         <v>43237</v>
       </c>
       <c r="B242">
-        <v>0.366755</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="C242">
         <v>0.42744100000000002</v>
@@ -12905,7 +12816,7 @@
         <v>3.109</v>
       </c>
       <c r="H242">
-        <v>0.34654620000000008</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I242">
         <v>0.39119280000000012</v>
@@ -12923,10 +12834,10 @@
         <v>2.9860000000000029</v>
       </c>
       <c r="N242">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O242">
-        <v>1</v>
+        <v>2722.46</v>
       </c>
       <c r="P242">
         <f t="shared" si="3"/>
@@ -12956,7 +12867,7 @@
         <v>2.9809999999999999</v>
       </c>
       <c r="H243">
-        <v>0.34810360000000012</v>
+        <v>0.38562099999999999</v>
       </c>
       <c r="I243">
         <v>0.39774680000000001</v>
@@ -12974,10 +12885,10 @@
         <v>2.9994000000000041</v>
       </c>
       <c r="N243">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O243">
-        <v>0</v>
+        <v>2733.29</v>
       </c>
       <c r="P243">
         <f t="shared" si="3"/>
@@ -13007,7 +12918,7 @@
         <v>2.8220000000000001</v>
       </c>
       <c r="H244">
-        <v>0.34432280000000021</v>
+        <v>0.37853300000000001</v>
       </c>
       <c r="I244">
         <v>0.39992440000000001</v>
@@ -13025,14 +12936,14 @@
         <v>2.9658000000000042</v>
       </c>
       <c r="N244">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O244">
-        <v>1</v>
+        <v>2724.01</v>
       </c>
       <c r="P244">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13058,7 +12969,7 @@
         <v>2.9329999999999998</v>
       </c>
       <c r="H245">
-        <v>0.36539520000000009</v>
+        <v>0.37927139999999998</v>
       </c>
       <c r="I245">
         <v>0.38591059999999999</v>
@@ -13076,10 +12987,10 @@
         <v>2.9632000000000041</v>
       </c>
       <c r="N245">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O245">
-        <v>1</v>
+        <v>2772.35</v>
       </c>
       <c r="P245">
         <f t="shared" si="3"/>
@@ -13109,7 +13020,7 @@
         <v>2.9460000000000002</v>
       </c>
       <c r="H246">
-        <v>0.38793440000000012</v>
+        <v>0.39170759999999999</v>
       </c>
       <c r="I246">
         <v>0.37102879999999988</v>
@@ -13127,10 +13038,10 @@
         <v>2.9582000000000042</v>
       </c>
       <c r="N246">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O246">
-        <v>0</v>
+        <v>2775.63</v>
       </c>
       <c r="P246">
         <f t="shared" si="3"/>
@@ -13178,14 +13089,14 @@
         <v>2.9158000000000039</v>
       </c>
       <c r="N247">
-        <v>1746.38</v>
+        <v>0</v>
       </c>
       <c r="O247">
-        <v>0</v>
+        <v>2767.32</v>
       </c>
       <c r="P247">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13229,14 +13140,14 @@
         <v>2.8890000000000038</v>
       </c>
       <c r="N248">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O248">
-        <v>1</v>
+        <v>2699.63</v>
       </c>
       <c r="P248">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13280,14 +13191,14 @@
         <v>2.8926000000000038</v>
       </c>
       <c r="N249">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O249">
-        <v>1</v>
+        <v>2713.22</v>
       </c>
       <c r="P249">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13331,10 +13242,10 @@
         <v>2.8766000000000038</v>
       </c>
       <c r="N250">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O250">
-        <v>1</v>
+        <v>2774.02</v>
       </c>
       <c r="P250">
         <f t="shared" si="3"/>
@@ -13382,184 +13293,14 @@
         <v>2.8568000000000038</v>
       </c>
       <c r="N251">
-        <v>1746.38</v>
+        <v>1</v>
       </c>
       <c r="O251">
-        <v>1</v>
+        <v>2815.62</v>
       </c>
       <c r="P251">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04C47D-42F3-4D4F-B0BC-75D815D87209}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.61077844311377205</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.55421686746987897</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.60240963855421603</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.62650602409638501</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.53012048192771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0.70588235294117596</v>
-      </c>
-      <c r="C3">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D3">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="E3">
-        <v>0.73949579831932699</v>
-      </c>
-      <c r="F3">
-        <v>0.63551401869158797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="403.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86AC381-7A60-4533-8B42-3718FCDABCE7}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.15103902275918599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.15031984881041699</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.131116918332008</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.148310113487293</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
